--- a/data/hotels_by_city/Houston/Houston_shard_80.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_80.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d1493261-Reviews-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Pearland.h2840576.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1351 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r554599551-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1493261</t>
+  </si>
+  <si>
+    <t>554599551</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Wouldn’t Stay Here Again</t>
+  </si>
+  <si>
+    <t>Why wouldn’t I stay here again? Take your pick:* The mold in the bathroom* The most uncomfortable hotel beds I’ve ever slept in* The thin walls — so thin I could hear the TV in the next room at 5amLocation was good for our particular reason for being in Pearland. But next year when we’re in Pearland again, we’ll be staying elsewhere — even if it’s further away. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Why wouldn’t I stay here again? Take your pick:* The mold in the bathroom* The most uncomfortable hotel beds I’ve ever slept in* The thin walls — so thin I could hear the TV in the next room at 5amLocation was good for our particular reason for being in Pearland. But next year when we’re in Pearland again, we’ll be staying elsewhere — even if it’s further away. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r550088511-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>550088511</t>
+  </si>
+  <si>
+    <t>12/29/2017</t>
+  </si>
+  <si>
+    <t>Room Cleaning</t>
+  </si>
+  <si>
+    <t>Rooms are thoroughly cleaned every Thursday. Someone comes in and strips the bed and takes the towels and shower curtain. Later someone else comes in and replaces everything and cleans. Last Thursday we waited for our room to be cleaned after it was stripped of linens. We left and came back at 5 o’clock. There were no sheets, towels, shower curtains, the room hadn’t been touched. We called down to the desk, and the response was to ask if we would like service on Friday. We went down to the desk, showed pictures of our bare bed and bath to the person in charge. This response was, Oh the maid said she couldn’t enter...why couldn’t she? Too anxious to start her vacation? Then the desk person said, “would you like some sheets to make your bed?”We decided to leave a day early for a trip, and requested that they make sure our room was ready when we returned. It was. The service had been excellent up to that point, but I am highly disappointed with their response to this situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Rooms are thoroughly cleaned every Thursday. Someone comes in and strips the bed and takes the towels and shower curtain. Later someone else comes in and replaces everything and cleans. Last Thursday we waited for our room to be cleaned after it was stripped of linens. We left and came back at 5 o’clock. There were no sheets, towels, shower curtains, the room hadn’t been touched. We called down to the desk, and the response was to ask if we would like service on Friday. We went down to the desk, showed pictures of our bare bed and bath to the person in charge. This response was, Oh the maid said she couldn’t enter...why couldn’t she? Too anxious to start her vacation? Then the desk person said, “would you like some sheets to make your bed?”We decided to leave a day early for a trip, and requested that they make sure our room was ready when we returned. It was. The service had been excellent up to that point, but I am highly disappointed with their response to this situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r544611454-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>544611454</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel I've ever had the displeasure of staying in</t>
+  </si>
+  <si>
+    <t>We evacuated from Hurricane Harvey to here. Mold in the showers, house keeping is around 10 am. everyday. Saturdays is "deep cleaning; you wont need a wake-up call... hope you don't enjoy sleeping in on Saturdays. The maintenance employee is very rude, half the staff doesn't speak English fluently. The hotel is pet friendly but they will charge you out the wazoo for it. The elevators don't work half the time. (hope you don't have a fear of being trapped in an elevator)The people that stay in this hotel are sketchy. We have been here about 3 months and we've been approached by crack heads, drunks, and sexual deviants (intoxicated man looking at women and grabbing his crotch) (long story). NEVER ENOUGH PARKING... ENJOY PARKING ACROSS THE FIRE LANE OR LOADING AREAS... HOPE THE FIRE MARSHALL DOESN'T DECIDE TO STOP BY ON YOUR VISIT HERE. DO NOT WASTE YOUR MONEY! ABSOLUTELY HORRIBLEMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded December 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2017</t>
+  </si>
+  <si>
+    <t>We evacuated from Hurricane Harvey to here. Mold in the showers, house keeping is around 10 am. everyday. Saturdays is "deep cleaning; you wont need a wake-up call... hope you don't enjoy sleeping in on Saturdays. The maintenance employee is very rude, half the staff doesn't speak English fluently. The hotel is pet friendly but they will charge you out the wazoo for it. The elevators don't work half the time. (hope you don't have a fear of being trapped in an elevator)The people that stay in this hotel are sketchy. We have been here about 3 months and we've been approached by crack heads, drunks, and sexual deviants (intoxicated man looking at women and grabbing his crotch) (long story). NEVER ENOUGH PARKING... ENJOY PARKING ACROSS THE FIRE LANE OR LOADING AREAS... HOPE THE FIRE MARSHALL DOESN'T DECIDE TO STOP BY ON YOUR VISIT HERE. DO NOT WASTE YOUR MONEY! ABSOLUTELY HORRIBLEMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r497257831-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>497257831</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>There was rust around tub there was a roach went down told her she was going to give me spray to handle it I was not going to took a long time to get ices marker in room then went down to ask her something she didn't talk to me faces faces there was a spider the room it has been raining probably weartherMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>There was rust around tub there was a roach went down told her she was going to give me spray to handle it I was not going to took a long time to get ices marker in room then went down to ask her something she didn't talk to me faces faces there was a spider the room it has been raining probably weartherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r473812341-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>473812341</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Satisfied Customer</t>
+  </si>
+  <si>
+    <t>My son and I came stayed at this hotel for a BMX event. We had the pleasure of meeting Keysha. She was the only employee working that day, but she handled it well. We had a problem with our tv, and it wasn't as easy as she thought to figure out what the problem was. She remained calm, made a few calls, and was able to figure it out. She was AWESOME with AWESOME customer service skills.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>My son and I came stayed at this hotel for a BMX event. We had the pleasure of meeting Keysha. She was the only employee working that day, but she handled it well. We had a problem with our tv, and it wasn't as easy as she thought to figure out what the problem was. She remained calm, made a few calls, and was able to figure it out. She was AWESOME with AWESOME customer service skills.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r473182308-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>473182308</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service (Pamela at Front Desk)</t>
+  </si>
+  <si>
+    <t>I am very pleased at the level of professionalism, courtesy, patience and outstanding customer service given by Pamela the front desk staff. Pamela was very kind and accommodating to my needs and inquiries as a guest. I am very appreciative to this level of outstanding service, it is a quite a rare jewel in today's society. Free coffee and hot cocoa is available. Free fruit available, although I wish a better variety of fresh fruit was available (apples, oranges,bananas). 
+Nice lounge in entry area. variety of snacks,sandwiches, microwave meals, and cold beverages for sale in gift shop but are pricey. A Target is located down about 3-5 min down the road. Lots of banks and eateries within 3-8 minutes on the roads location. Depending on the time of day traffic can be heavy on Broadway st , it's very popular area. 
+Rooms are a bit outdated, one chair was badly stained in different spots. Leather chair was worn down leather had been peeling off. Carpet was a bit stained and looked old but they do have microwaves, full sized refrigerators, kitchen sink, drain board with cabinets and mini stove to cook on. They charge a $50 fee to hold in addition in case something is stolen or broken during your stay, you receive it back when you check out of the hotel. They do not serve free Hot breakfast. However, many restaurants are within short distance. 
+Nice business center where...I am very pleased at the level of professionalism, courtesy, patience and outstanding customer service given by Pamela the front desk staff. Pamela was very kind and accommodating to my needs and inquiries as a guest. I am very appreciative to this level of outstanding service, it is a quite a rare jewel in today's society. Free coffee and hot cocoa is available. Free fruit available, although I wish a better variety of fresh fruit was available (apples, oranges,bananas). Nice lounge in entry area. variety of snacks,sandwiches, microwave meals, and cold beverages for sale in gift shop but are pricey. A Target is located down about 3-5 min down the road. Lots of banks and eateries within 3-8 minutes on the roads location. Depending on the time of day traffic can be heavy on Broadway st , it's very popular area. Rooms are a bit outdated, one chair was badly stained in different spots. Leather chair was worn down leather had been peeling off. Carpet was a bit stained and looked old but they do have microwaves, full sized refrigerators, kitchen sink, drain board with cabinets and mini stove to cook on. They charge a $50 fee to hold in addition in case something is stolen or broken during your stay, you receive it back when you check out of the hotel. They do not serve free Hot breakfast. However, many restaurants are within short distance. Nice business center where you can use the computer, Internet and print or copy documents if needed. However, the volume was not working on one computer.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am very pleased at the level of professionalism, courtesy, patience and outstanding customer service given by Pamela the front desk staff. Pamela was very kind and accommodating to my needs and inquiries as a guest. I am very appreciative to this level of outstanding service, it is a quite a rare jewel in today's society. Free coffee and hot cocoa is available. Free fruit available, although I wish a better variety of fresh fruit was available (apples, oranges,bananas). 
+Nice lounge in entry area. variety of snacks,sandwiches, microwave meals, and cold beverages for sale in gift shop but are pricey. A Target is located down about 3-5 min down the road. Lots of banks and eateries within 3-8 minutes on the roads location. Depending on the time of day traffic can be heavy on Broadway st , it's very popular area. 
+Rooms are a bit outdated, one chair was badly stained in different spots. Leather chair was worn down leather had been peeling off. Carpet was a bit stained and looked old but they do have microwaves, full sized refrigerators, kitchen sink, drain board with cabinets and mini stove to cook on. They charge a $50 fee to hold in addition in case something is stolen or broken during your stay, you receive it back when you check out of the hotel. They do not serve free Hot breakfast. However, many restaurants are within short distance. 
+Nice business center where...I am very pleased at the level of professionalism, courtesy, patience and outstanding customer service given by Pamela the front desk staff. Pamela was very kind and accommodating to my needs and inquiries as a guest. I am very appreciative to this level of outstanding service, it is a quite a rare jewel in today's society. Free coffee and hot cocoa is available. Free fruit available, although I wish a better variety of fresh fruit was available (apples, oranges,bananas). Nice lounge in entry area. variety of snacks,sandwiches, microwave meals, and cold beverages for sale in gift shop but are pricey. A Target is located down about 3-5 min down the road. Lots of banks and eateries within 3-8 minutes on the roads location. Depending on the time of day traffic can be heavy on Broadway st , it's very popular area. Rooms are a bit outdated, one chair was badly stained in different spots. Leather chair was worn down leather had been peeling off. Carpet was a bit stained and looked old but they do have microwaves, full sized refrigerators, kitchen sink, drain board with cabinets and mini stove to cook on. They charge a $50 fee to hold in addition in case something is stolen or broken during your stay, you receive it back when you check out of the hotel. They do not serve free Hot breakfast. However, many restaurants are within short distance. Nice business center where you can use the computer, Internet and print or copy documents if needed. However, the volume was not working on one computer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r452793284-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>452793284</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Great staff at this hotel. The staff made sure we had everything we needed. The room was immaculate. Plenty of parking. Great value. Whatever you are looking for they will point you in the right direction. My husband and I  would highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Great staff at this hotel. The staff made sure we had everything we needed. The room was immaculate. Plenty of parking. Great value. Whatever you are looking for they will point you in the right direction. My husband and I  would highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r451504187-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>451504187</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>After needing construction on our home we needed a place to stay temporarily. They understood our situation having kids in a hotel during the holidays. They were so accommodating and made our stay as smooth as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>After needing construction on our home we needed a place to stay temporarily. They understood our situation having kids in a hotel during the holidays. They were so accommodating and made our stay as smooth as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r450863148-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>450863148</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Worst Candlewood Experience. Disappointed.</t>
+  </si>
+  <si>
+    <t>I usually have a great experience at Candlewood Suites. This whole trip, which will be 5 weeks long, will be a giant disappointment.
+   Last week, was sleep deprived. Had people on both sides of me playing loud TV and other loud music till the wee hours of the morning for 2 days. Informed front desk, nothing done. Poor internet connection all around.
+   This week started off with a bang. Came into room after I got off work to find the room door coming off its hinges. Looks like someone recently kicked it in. I thought nothing of it. Got a philips screw driver and put the bottom hinge back on with screws on floor inside room against wall. After that, moved my luggage further inside room. Turned AC down. Nothing happened. 
+I set it to 68. Actual temp was 77 at the time((got as high as 84)). Went down stairs and sat outside for a few mins. Went back up and noticed the fan mode was stuck on and AC still not working. 
+   I went downstairs and informed the front desk. I tried to explain the situation, rationally. I couldn't get a word in edgewise. Very frustrating. She said she would call manager. I will cut this very long story short. After a total of a few hours. A maintenance guy came and replaced the unit in my room with a old unit that was stuck in 1 mode. It...   I usually have a great experience at Candlewood Suites. This whole trip, which will be 5 weeks long, will be a giant disappointment.   Last week, was sleep deprived. Had people on both sides of me playing loud TV and other loud music till the wee hours of the morning for 2 days. Informed front desk, nothing done. Poor internet connection all around.   This week started off with a bang. Came into room after I got off work to find the room door coming off its hinges. Looks like someone recently kicked it in. I thought nothing of it. Got a philips screw driver and put the bottom hinge back on with screws on floor inside room against wall. After that, moved my luggage further inside room. Turned AC down. Nothing happened. I set it to 68. Actual temp was 77 at the time((got as high as 84)). Went down stairs and sat outside for a few mins. Went back up and noticed the fan mode was stuck on and AC still not working.    I went downstairs and informed the front desk. I tried to explain the situation, rationally. I couldn't get a word in edgewise. Very frustrating. She said she would call manager. I will cut this very long story short. After a total of a few hours. A maintenance guy came and replaced the unit in my room with a old unit that was stuck in 1 mode. It cooled the room a little bit but was still sticky in room.( humid)   Overall, after what I've seen, this place should remove the Candlewood name, because I've stayed at many Candlewood Inns and Suites. In many states. And this place is a disgrace to the name. Stay away, La Quinta across street, much better there.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>I usually have a great experience at Candlewood Suites. This whole trip, which will be 5 weeks long, will be a giant disappointment.
+   Last week, was sleep deprived. Had people on both sides of me playing loud TV and other loud music till the wee hours of the morning for 2 days. Informed front desk, nothing done. Poor internet connection all around.
+   This week started off with a bang. Came into room after I got off work to find the room door coming off its hinges. Looks like someone recently kicked it in. I thought nothing of it. Got a philips screw driver and put the bottom hinge back on with screws on floor inside room against wall. After that, moved my luggage further inside room. Turned AC down. Nothing happened. 
+I set it to 68. Actual temp was 77 at the time((got as high as 84)). Went down stairs and sat outside for a few mins. Went back up and noticed the fan mode was stuck on and AC still not working. 
+   I went downstairs and informed the front desk. I tried to explain the situation, rationally. I couldn't get a word in edgewise. Very frustrating. She said she would call manager. I will cut this very long story short. After a total of a few hours. A maintenance guy came and replaced the unit in my room with a old unit that was stuck in 1 mode. It...   I usually have a great experience at Candlewood Suites. This whole trip, which will be 5 weeks long, will be a giant disappointment.   Last week, was sleep deprived. Had people on both sides of me playing loud TV and other loud music till the wee hours of the morning for 2 days. Informed front desk, nothing done. Poor internet connection all around.   This week started off with a bang. Came into room after I got off work to find the room door coming off its hinges. Looks like someone recently kicked it in. I thought nothing of it. Got a philips screw driver and put the bottom hinge back on with screws on floor inside room against wall. After that, moved my luggage further inside room. Turned AC down. Nothing happened. I set it to 68. Actual temp was 77 at the time((got as high as 84)). Went down stairs and sat outside for a few mins. Went back up and noticed the fan mode was stuck on and AC still not working.    I went downstairs and informed the front desk. I tried to explain the situation, rationally. I couldn't get a word in edgewise. Very frustrating. She said she would call manager. I will cut this very long story short. After a total of a few hours. A maintenance guy came and replaced the unit in my room with a old unit that was stuck in 1 mode. It cooled the room a little bit but was still sticky in room.( humid)   Overall, after what I've seen, this place should remove the Candlewood name, because I've stayed at many Candlewood Inns and Suites. In many states. And this place is a disgrace to the name. Stay away, La Quinta across street, much better there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r419575068-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>419575068</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>Candlewood in Pearland</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a single night on business. The location is great is you are looking for something near the Pearland business district and/or Hobby Airport. The hotel is nothing special and is more directed towards an extended stay versus a night or two. I had a double studio that housed two double beds, a small kitchenette, and a work desk. The layout was unconventional and lacked efficiency, but was clean. This brand does not offer a complimentary breakfast, so keep that in mind if staying there. My biggest criticism of the hotel is that the internet was absolutely horrible - basically non-existent. That's a big problem if you are planning to be productive with work during the stay. That alone will keep me from staying here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a single night on business. The location is great is you are looking for something near the Pearland business district and/or Hobby Airport. The hotel is nothing special and is more directed towards an extended stay versus a night or two. I had a double studio that housed two double beds, a small kitchenette, and a work desk. The layout was unconventional and lacked efficiency, but was clean. This brand does not offer a complimentary breakfast, so keep that in mind if staying there. My biggest criticism of the hotel is that the internet was absolutely horrible - basically non-existent. That's a big problem if you are planning to be productive with work during the stay. That alone will keep me from staying here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r406285697-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>406285697</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Moving to TX</t>
+  </si>
+  <si>
+    <t>We had to stay here last minute when the moving co didn't show up with our stuff on time. Even though they were very booked with a local company that had most of the rooms occupied for a few months they did there best to fit us in and upgrade us as soon as a room was available. On our last night I was trying to get our laundry done and the machine broke and all the others were occupied. Pamela so graciously allowed me to use the hotels machines to finish my laundry. It was truly appreciated as this was then end of was became a pretty stressful trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>We had to stay here last minute when the moving co didn't show up with our stuff on time. Even though they were very booked with a local company that had most of the rooms occupied for a few months they did there best to fit us in and upgrade us as soon as a room was available. On our last night I was trying to get our laundry done and the machine broke and all the others were occupied. Pamela so graciously allowed me to use the hotels machines to finish my laundry. It was truly appreciated as this was then end of was became a pretty stressful trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r377385416-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>377385416</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>Keysha got my mail in the pouring rain the staff is very helpful n courtious would highly recommend in the future the rooms are very clean and the housekeeping is very considerate social night here every Wednesday free beer and foodMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Keysha got my mail in the pouring rain the staff is very helpful n courtious would highly recommend in the future the rooms are very clean and the housekeeping is very considerate social night here every Wednesday free beer and foodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r373389398-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>373389398</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Close to Houston without the hassles!</t>
+  </si>
+  <si>
+    <t>Clean, convenient and quiet.  We had 4 professionals in for the OTC conference.  The staff was exceptional - especially Pamela S and Raquel S.  They gave good advice on local "stuff" and always greeted us with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2016</t>
+  </si>
+  <si>
+    <t>Clean, convenient and quiet.  We had 4 professionals in for the OTC conference.  The staff was exceptional - especially Pamela S and Raquel S.  They gave good advice on local "stuff" and always greeted us with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r372883552-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>372883552</t>
+  </si>
+  <si>
+    <t>05/14/2016</t>
+  </si>
+  <si>
+    <t>AWESOME!!</t>
+  </si>
+  <si>
+    <t>I came to this hotel because i was visiting family. The front desk was help and the rooms were clean. Nicole was able to assist me with the internet when i couldnt log on. I would stay here again......MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>I came to this hotel because i was visiting family. The front desk was help and the rooms were clean. Nicole was able to assist me with the internet when i couldnt log on. I would stay here again......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r364258055-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>364258055</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Comfortable stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here during a quick visit with family. Staff is friendly and accommodating. Hotel is conveniently located, walking distance to local eateries. Room was comfortable and has kitchenette. We were in front facing room and had no issues with noise. This is a pet friendly hotel, and seemed to be very well kept. Free wash and dry in laundry room was an added bonus. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r350585832-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>350585832</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My experience </t>
+  </si>
+  <si>
+    <t>Love the staff.... great environment.  Very professional  and great customer service.  VERY CLEAN AND NEAT. Also they had fast check in time an turn  arounds. Will recommend  this to any of my family and friends. This is a must stay hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Love the staff.... great environment.  Very professional  and great customer service.  VERY CLEAN AND NEAT. Also they had fast check in time an turn  arounds. Will recommend  this to any of my family and friends. This is a must stay hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r350585280-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>350585280</t>
+  </si>
+  <si>
+    <t>"Home away from Home"</t>
+  </si>
+  <si>
+    <t>The staff is very nice and helpful. The fitness center was great! The location is perfectly located in the middle of everything. The room was VERY clean. I really recommend this hotel for who wants to be in a great location and in a decent price!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is very nice and helpful. The fitness center was great! The location is perfectly located in the middle of everything. The room was VERY clean. I really recommend this hotel for who wants to be in a great location and in a decent price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r350580806-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>350580806</t>
+  </si>
+  <si>
+    <t>Great Hotel.</t>
+  </si>
+  <si>
+    <t>Love the management and front desk staff! Enjoyed the time there with my friends and the cupboard is so convenient as well as the lending locker, would definitely stay again. The weekend was very pleasant and I felt so at home staying at this locationMoreShow less</t>
+  </si>
+  <si>
+    <t>Love the management and front desk staff! Enjoyed the time there with my friends and the cupboard is so convenient as well as the lending locker, would definitely stay again. The weekend was very pleasant and I felt so at home staying at this locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r341523435-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>341523435</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>GREAT place.</t>
+  </si>
+  <si>
+    <t>Fast , friendly check in and checkout.VERY clean (quiet) rooms, lobby, grounds.Large rooms with  frig, microwave, sink, stove.Everything convenient and in good working condition.very reasonable price, and pet friendly for small extra fee... also with nice dog-walking area.close to restaurants and shopping.Would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded January 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2016</t>
+  </si>
+  <si>
+    <t>Fast , friendly check in and checkout.VERY clean (quiet) rooms, lobby, grounds.Large rooms with  frig, microwave, sink, stove.Everything convenient and in good working condition.very reasonable price, and pet friendly for small extra fee... also with nice dog-walking area.close to restaurants and shopping.Would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r330340437-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>330340437</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Thanksgiving Holiday Weekend</t>
+  </si>
+  <si>
+    <t>I absolutely LOVE this little slice of home. It is beautifully maintained, excellent staff, wonderful rooms. Never a problem being there. Everytime I have relatives or family in town, this is the first and only place I ever take them to. Ms. A is the greatest!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>I absolutely LOVE this little slice of home. It is beautifully maintained, excellent staff, wonderful rooms. Never a problem being there. Everytime I have relatives or family in town, this is the first and only place I ever take them to. Ms. A is the greatest!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r324830688-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>324830688</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>A Comfortable Experience</t>
+  </si>
+  <si>
+    <t>A clean suite, friendly and helpful staff especially Pamela at the front desk.  Plenty of parking spaces.  The hotel is at a very convenient location closed to shops and restaurants, yet the immediate surrounding is very quiet.  I would stay here again.  It didn't get a perfect score because I could hear foot steps from the floor above.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>A clean suite, friendly and helpful staff especially Pamela at the front desk.  Plenty of parking spaces.  The hotel is at a very convenient location closed to shops and restaurants, yet the immediate surrounding is very quiet.  I would stay here again.  It didn't get a perfect score because I could hear foot steps from the floor above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r317505026-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>317505026</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner / </t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised with our stay at Candlewood Suites. We have never stayed at an extended stay hotel before.  Highly recommended as they have fully stocked kitchens,  comfortable beds and very helpful staff. We ended up staying longer than previously planned and the Sales person  (Rachael ) was extremely helpful and made it possible for us not to have to go to another hotel. Would definitely recommend this hotel. We will be back. Sincerely, Lynn D.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised with our stay at Candlewood Suites. We have never stayed at an extended stay hotel before.  Highly recommended as they have fully stocked kitchens,  comfortable beds and very helpful staff. We ended up staying longer than previously planned and the Sales person  (Rachael ) was extremely helpful and made it possible for us not to have to go to another hotel. Would definitely recommend this hotel. We will be back. Sincerely, Lynn D.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r316619114-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>316619114</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>awesome place</t>
+  </si>
+  <si>
+    <t>I love the Candlewood and they are now doing FREE beer on Football nights.  Had a Awesome time with my friends and the front desk was super accommodating too!! The room was great and the beds are very comfortable.  I wish mine were this comfy at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2015</t>
+  </si>
+  <si>
+    <t>I love the Candlewood and they are now doing FREE beer on Football nights.  Had a Awesome time with my friends and the front desk was super accommodating too!! The room was great and the beds are very comfortable.  I wish mine were this comfy at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r307098340-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>307098340</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Excellent place to stay!☺️</t>
+  </si>
+  <si>
+    <t>Came down with my fiancé to live in this new area, we needed a temporary place that offered extended stay and I found this place, very clean housekeeping was amazing, staff were extremely friendly and the manager alpesh was amazing! My car keys were returned after a month due to me dropping them down the  elevator down to the basement, I was amazed with the generous and comforting environment ! Would definitely stay againFelt like a little home!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2015</t>
+  </si>
+  <si>
+    <t>Came down with my fiancé to live in this new area, we needed a temporary place that offered extended stay and I found this place, very clean housekeeping was amazing, staff were extremely friendly and the manager alpesh was amazing! My car keys were returned after a month due to me dropping them down the  elevator down to the basement, I was amazed with the generous and comforting environment ! Would definitely stay againFelt like a little home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r280043102-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>280043102</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Close to amenities</t>
+  </si>
+  <si>
+    <t>Nice hotel, with a snack store, close to shopping, dining and in a good neighborhood.No problems with checking in or out. Room was clean with cold A/C, and good hi speed internet.Quiet surroundings. Full Fridge and microwave in the suite.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, with a snack store, close to shopping, dining and in a good neighborhood.No problems with checking in or out. Room was clean with cold A/C, and good hi speed internet.Quiet surroundings. Full Fridge and microwave in the suite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r278195710-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>278195710</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Above and beyond</t>
+  </si>
+  <si>
+    <t>The service given to us from Shakoyla upon reservation was exceptional we had a very nice room with great value.I in the past traveled and stayed at 4&amp;5 star hotels for buisness travel and many of those places would be wise to take a lesson on customer service from Shakoyla's exceptional level of professional experience with the best treatment of the customer's needs and requirements fora trouble free visit! The rest of staff mirrors this example shown by Shakoyla and they strive to make your visit very pleasant and memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>The service given to us from Shakoyla upon reservation was exceptional we had a very nice room with great value.I in the past traveled and stayed at 4&amp;5 star hotels for buisness travel and many of those places would be wise to take a lesson on customer service from Shakoyla's exceptional level of professional experience with the best treatment of the customer's needs and requirements fora trouble free visit! The rest of staff mirrors this example shown by Shakoyla and they strive to make your visit very pleasant and memorable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r273849846-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>273849846</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THINK THRICE BEFORE U VISIT </t>
+  </si>
+  <si>
+    <t>Yes think thrice before moving in to this hotelThis is the worse of candlewood suites I ever been across in my whole life, worst ever in USA.Well I came across some untidy towels&amp; I gave them for exchanging to the front desk, the receptionist told me she will let me know whenever it's ready after washing.BUT She never replied back regarding this issue nor the housekeeping visited my room during my three night stay. I even once recommended the front desk to send in housekeeping to my room that too went unanswered.Front desk will never acknowledge u as a IHG Rewards member too!People please there are lot of other hotels in Houston for a comfortable stay So think!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Yes think thrice before moving in to this hotelThis is the worse of candlewood suites I ever been across in my whole life, worst ever in USA.Well I came across some untidy towels&amp; I gave them for exchanging to the front desk, the receptionist told me she will let me know whenever it's ready after washing.BUT She never replied back regarding this issue nor the housekeeping visited my room during my three night stay. I even once recommended the front desk to send in housekeeping to my room that too went unanswered.Front desk will never acknowledge u as a IHG Rewards member too!People please there are lot of other hotels in Houston for a comfortable stay So think!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r256182481-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>256182481</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel with kitchen</t>
+  </si>
+  <si>
+    <t>Hotel staff very accomadating. Clean rooms. comfortable beds. Ammenities are good. Within a few miles from beltway 8. Several restaurants nearby, or bring your own food as every room has full size refrigerator. As well as cooktop, and dishwasher. Convenient to south houston and Galveston area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Hotel staff very accomadating. Clean rooms. comfortable beds. Ammenities are good. Within a few miles from beltway 8. Several restaurants nearby, or bring your own food as every room has full size refrigerator. As well as cooktop, and dishwasher. Convenient to south houston and Galveston area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r250437762-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>250437762</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Fraud</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is the worst. I was charged an additional $200 and the staff is unable to tell me why. I'm in the process of working with my bank to address the charges but please be very careful staying at this hotel because they will place unauthorized charges on your account!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is the worst. I was charged an additional $200 and the staff is unable to tell me why. I'm in the process of working with my bank to address the charges but please be very careful staying at this hotel because they will place unauthorized charges on your account!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r246442142-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>246442142</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights in order to find apartment for my child who is moving here. Clean, comfy,such helpful front desk people. Special shout out to Antoinette at the front desk. Really helped us with info. Great price in a good location. Would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights in order to find apartment for my child who is moving here. Clean, comfy,such helpful front desk people. Special shout out to Antoinette at the front desk. Really helped us with info. Great price in a good location. Would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r208601455-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>208601455</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Printer didn't work, front desk could care less</t>
+  </si>
+  <si>
+    <t>No problems with the room.  It was clean and the bed was comfortable.
+I stayed two nights, Saturday to Monday.  On Sunday, I needed to print about 10 pages for work that I needed to prep later that night for Monday.  I go down to the business center to print everything up and the toner cartridge is near-empty, so half of each page is faded.  Head to the front desk and was told they don't have any replacement toner cartridges (without even looking) and that the front desk printer doesn't work any better.
+I asked for a manager and was told by the person at the front desk that she was the MOD.  She then suggested I go to the Post Office to print what I needed?  I assume she meant Fedex.  Still, seriously?  I asked if she was going to reimburse me for the costs and she smiled, almost laughed in my face and said no.  I guess its too much to ask that amenities work properly or that the hotel take responsibility when they don't.
+After this experience I called the hotel general manager and left a voicemail about my disappointment about the attitude of the front desk and having to drive down to Fedex (I was lucky they were open, being it was 5PM on Sunday).  In fairness, he did call me back later that night to apologize, although I missed his call.
+I would also note...No problems with the room.  It was clean and the bed was comfortable.I stayed two nights, Saturday to Monday.  On Sunday, I needed to print about 10 pages for work that I needed to prep later that night for Monday.  I go down to the business center to print everything up and the toner cartridge is near-empty, so half of each page is faded.  Head to the front desk and was told they don't have any replacement toner cartridges (without even looking) and that the front desk printer doesn't work any better.I asked for a manager and was told by the person at the front desk that she was the MOD.  She then suggested I go to the Post Office to print what I needed?  I assume she meant Fedex.  Still, seriously?  I asked if she was going to reimburse me for the costs and she smiled, almost laughed in my face and said no.  I guess its too much to ask that amenities work properly or that the hotel take responsibility when they don't.After this experience I called the hotel general manager and left a voicemail about my disappointment about the attitude of the front desk and having to drive down to Fedex (I was lucky they were open, being it was 5PM on Sunday).  In fairness, he did call me back later that night to apologize, although I missed his call.I would also note that the afternoon/night "MOD" that I spoke with was never at the front desk when I needed something.  I had to ring both times and wait.  The first time she was eating, the second time she was on a personal phone call.  Unless it was impeccably bad timing on my part, her behavior was very unprofessional.I hope the GM either retrains this person or hires a replacement.  The person working in the morning was much more pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded June 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2014</t>
+  </si>
+  <si>
+    <t>No problems with the room.  It was clean and the bed was comfortable.
+I stayed two nights, Saturday to Monday.  On Sunday, I needed to print about 10 pages for work that I needed to prep later that night for Monday.  I go down to the business center to print everything up and the toner cartridge is near-empty, so half of each page is faded.  Head to the front desk and was told they don't have any replacement toner cartridges (without even looking) and that the front desk printer doesn't work any better.
+I asked for a manager and was told by the person at the front desk that she was the MOD.  She then suggested I go to the Post Office to print what I needed?  I assume she meant Fedex.  Still, seriously?  I asked if she was going to reimburse me for the costs and she smiled, almost laughed in my face and said no.  I guess its too much to ask that amenities work properly or that the hotel take responsibility when they don't.
+After this experience I called the hotel general manager and left a voicemail about my disappointment about the attitude of the front desk and having to drive down to Fedex (I was lucky they were open, being it was 5PM on Sunday).  In fairness, he did call me back later that night to apologize, although I missed his call.
+I would also note...No problems with the room.  It was clean and the bed was comfortable.I stayed two nights, Saturday to Monday.  On Sunday, I needed to print about 10 pages for work that I needed to prep later that night for Monday.  I go down to the business center to print everything up and the toner cartridge is near-empty, so half of each page is faded.  Head to the front desk and was told they don't have any replacement toner cartridges (without even looking) and that the front desk printer doesn't work any better.I asked for a manager and was told by the person at the front desk that she was the MOD.  She then suggested I go to the Post Office to print what I needed?  I assume she meant Fedex.  Still, seriously?  I asked if she was going to reimburse me for the costs and she smiled, almost laughed in my face and said no.  I guess its too much to ask that amenities work properly or that the hotel take responsibility when they don't.After this experience I called the hotel general manager and left a voicemail about my disappointment about the attitude of the front desk and having to drive down to Fedex (I was lucky they were open, being it was 5PM on Sunday).  In fairness, he did call me back later that night to apologize, although I missed his call.I would also note that the afternoon/night "MOD" that I spoke with was never at the front desk when I needed something.  I had to ring both times and wait.  The first time she was eating, the second time she was on a personal phone call.  Unless it was impeccably bad timing on my part, her behavior was very unprofessional.I hope the GM either retrains this person or hires a replacement.  The person working in the morning was much more pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r207040076-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>207040076</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Great stays for In laws and out of town house guest</t>
+  </si>
+  <si>
+    <t>My boyfriend came into town to meet my parents and found a great deal on a weeks stay on Priceline. I would request a room on the second floor away from elevators. The room was nice complete with a mini kitchen and large fridge!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded July 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2014</t>
+  </si>
+  <si>
+    <t>My boyfriend came into town to meet my parents and found a great deal on a weeks stay on Priceline. I would request a room on the second floor away from elevators. The room was nice complete with a mini kitchen and large fridge!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r199400566-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>199400566</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>After staying at numerous extended stays around Houston, I finally discovered Candlewood Suites in Pearland Tx. The staff is fabulous, accommodations are first class, and I feel like I found a home away from home. Room is comfortable, CLEAN, and has more than enough great amenities. While slightly pricier than others, It is WELL worth the difference. Thank you IHG group for what you are doing.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r184521225-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>184521225</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Loved the hotel</t>
+  </si>
+  <si>
+    <t>November 7, 2013We had the privilege of staying only one night in this hotel but plan to go back for a longer stay.  It was perfect...fantastic shower and good bed. There was a very adequate kitchen, also.  Super clean and an absolutely wonderful person who checked us in.  She even called after we got into the room to make sure everything was as we expected.This was our first stay at Candlewood Suites but we will be looking for them in the future and would highly recommend the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>November 7, 2013We had the privilege of staying only one night in this hotel but plan to go back for a longer stay.  It was perfect...fantastic shower and good bed. There was a very adequate kitchen, also.  Super clean and an absolutely wonderful person who checked us in.  She even called after we got into the room to make sure everything was as we expected.This was our first stay at Candlewood Suites but we will be looking for them in the future and would highly recommend the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r179283733-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>179283733</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>EXCELLENT !</t>
+  </si>
+  <si>
+    <t>Good services , good location , good price . I book this hotel thru priceline and I got a very good deal by choose " express deal " . Candlewood is in a very quite and secure location .  It is an extended stay hotel with modern amenities (range, full size refrigerator and microwave and dishwasher .MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Good services , good location , good price . I book this hotel thru priceline and I got a very good deal by choose " express deal " . Candlewood is in a very quite and secure location .  It is an extended stay hotel with modern amenities (range, full size refrigerator and microwave and dishwasher .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r170510807-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>170510807</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Our family checked in on July 27 and checked out July 28th. The individual that checked us in gave us a room that was occupied by another guest! I am just grateful that the guest was not in the room. The individual that checked us in was quite nonchalant about the whole situation it was only after we settled in to the new room did she call and apologize. Later as we got  the kids ready for bed, my daughter looked up and started shrieking. In front of us was a roach the size of my thumb! We immediately reported it to the front desk and was told that the hotel was fully booked. I was uncomfortable for the rest of the night. My husband asked to speak to the manager and was told that managers are only available Monday through Thursday. We got back and called again and was promised that a manager would call back. We never received a phone call. I will not stay at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Our family checked in on July 27 and checked out July 28th. The individual that checked us in gave us a room that was occupied by another guest! I am just grateful that the guest was not in the room. The individual that checked us in was quite nonchalant about the whole situation it was only after we settled in to the new room did she call and apologize. Later as we got  the kids ready for bed, my daughter looked up and started shrieking. In front of us was a roach the size of my thumb! We immediately reported it to the front desk and was told that the hotel was fully booked. I was uncomfortable for the rest of the night. My husband asked to speak to the manager and was told that managers are only available Monday through Thursday. We got back and called again and was promised that a manager would call back. We never received a phone call. I will not stay at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r145468395-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>145468395</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Excellent place to stay when working out of town</t>
+  </si>
+  <si>
+    <t>Excellent saff --Alpesh is the one to talk to if you have any problems which I never do but still nice to talk to. Rooms are clean and fresh. My workers always ask to stay at the hotel in Pearland TX there are other hotels but they like this one.Coffee is always on and I live by coffee! Cupboard has different items so you don't have to get out if you don't want to just pick something and take it to your room.This is great hotel for those on budget keep more money in your pocket to injoy the sites around you.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded January 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2013</t>
+  </si>
+  <si>
+    <t>Excellent saff --Alpesh is the one to talk to if you have any problems which I never do but still nice to talk to. Rooms are clean and fresh. My workers always ask to stay at the hotel in Pearland TX there are other hotels but they like this one.Coffee is always on and I live by coffee! Cupboard has different items so you don't have to get out if you don't want to just pick something and take it to your room.This is great hotel for those on budget keep more money in your pocket to injoy the sites around you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r140425160-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>140425160</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>Excellent Road Warrior Hotel</t>
+  </si>
+  <si>
+    <t>This one is a cut above the other hotels in this price range. I travel a lot (250 + days a year in hotels) and I really loved this place. It is an extended stay type of hotel, so you're going to do your own cooking and maid service (except for your "maid day"), but that's fine (it's better on the budget). The kitchenette area features FULL SIZE refrig and micro; I actually had a dishwasher (yeah!!); Flat plasma TV is great with loads of channels; front desk was excellent for my 2+ week stay here. Bed and pillows were perfect and cozy. Air conditioner was not too loud and worked well.The FREE laundry room is a definite plus (haven't seen that before). Location is great for shopping and getting around the south Houston area wasn't too bad.I would change my schedule to try to stay here again in the future!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This one is a cut above the other hotels in this price range. I travel a lot (250 + days a year in hotels) and I really loved this place. It is an extended stay type of hotel, so you're going to do your own cooking and maid service (except for your "maid day"), but that's fine (it's better on the budget). The kitchenette area features FULL SIZE refrig and micro; I actually had a dishwasher (yeah!!); Flat plasma TV is great with loads of channels; front desk was excellent for my 2+ week stay here. Bed and pillows were perfect and cozy. Air conditioner was not too loud and worked well.The FREE laundry room is a definite plus (haven't seen that before). Location is great for shopping and getting around the south Houston area wasn't too bad.I would change my schedule to try to stay here again in the future!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r139580459-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>139580459</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Great Customer Service!!!</t>
+  </si>
+  <si>
+    <t>I was in the Houston area and stayed in Pearland, TX. I was very pleased with my stay at this hotel. The agent Teriko was very polite and hospitable!!! A++ for the Candlewood. I would recommend this hotel to all my family and friends.  I am planning another trip and I will be choosing the Candlewood of coarse...MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in the Houston area and stayed in Pearland, TX. I was very pleased with my stay at this hotel. The agent Teriko was very polite and hospitable!!! A++ for the Candlewood. I would recommend this hotel to all my family and friends.  I am planning another trip and I will be choosing the Candlewood of coarse...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r131509685-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>131509685</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Pearland office visit.</t>
+  </si>
+  <si>
+    <t>Price and Location were the reason for my first visit.  The accomodations, staff, and quality were the reason this is my preferred hotel when I go to Pearland.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2012</t>
+  </si>
+  <si>
+    <t>Price and Location were the reason for my first visit.  The accomodations, staff, and quality were the reason this is my preferred hotel when I go to Pearland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r129607936-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>129607936</t>
+  </si>
+  <si>
+    <t>05/08/2012</t>
+  </si>
+  <si>
+    <t>Not the best place</t>
+  </si>
+  <si>
+    <t>Not a good experience at all.After 3 trips down stairs to get the entry card reprogramed, they finally gave me a different room.The next day with the different room there was a cockroach in the sink.I did talk to the manager, and he say that he would adjust the bill.Of course that didn't happen either.Will not use this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded May 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2012</t>
+  </si>
+  <si>
+    <t>Not a good experience at all.After 3 trips down stairs to get the entry card reprogramed, they finally gave me a different room.The next day with the different room there was a cockroach in the sink.I did talk to the manager, and he say that he would adjust the bill.Of course that didn't happen either.Will not use this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r128268201-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>128268201</t>
+  </si>
+  <si>
+    <t>04/21/2012</t>
+  </si>
+  <si>
+    <t>I had to train for my new job in Pearlan, Tx for 2 and a half months. During my time there I stayed at Candlewood Suites, all I can say is that the staff and housing made the time away from home easy on me. The staff was very polite an helpful, and the hosuing was excellent. The stove, full size fridge, laundry room, and patio made the time there perfect. If I ever find myself in Pearland again I will definitely be staying there againMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I had to train for my new job in Pearlan, Tx for 2 and a half months. During my time there I stayed at Candlewood Suites, all I can say is that the staff and housing made the time away from home easy on me. The staff was very polite an helpful, and the hosuing was excellent. The stove, full size fridge, laundry room, and patio made the time there perfect. If I ever find myself in Pearland again I will definitely be staying there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r121900060-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>121900060</t>
+  </si>
+  <si>
+    <t>12/19/2011</t>
+  </si>
+  <si>
+    <t>I will come back again</t>
+  </si>
+  <si>
+    <t>I like this Place in particular, clean rooms, in the hearth of Pearland, Texas, very helpful staff, thanks Candlewood.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded February 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2012</t>
+  </si>
+  <si>
+    <t>I like this Place in particular, clean rooms, in the hearth of Pearland, Texas, very helpful staff, thanks Candlewood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r120180469-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120180469</t>
+  </si>
+  <si>
+    <t>11/04/2011</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Was in Houston TX for Business and needed a Hotel close to Houston, but far enough away from the city limits. Hotel is new, rooms are large, staff is great, Hotel is very clean and upkept, very very quite for continued work after the day is over, Internet being wireless or hard line never failed. Staff worked very hard to make our stay as close to home away from home! Scale of 1-10, would be an 11, I am in Hotels about 200 plus days a year and can say, this will be my Houston TX hotel. I went through 6 Hotels in 6 days when I reached Houston looking for a quite, clean and secure hotel, this one is where we will come back too. My wife traveld with me on this trip and she throughly enjoy this Hotel for the saftey and quietness!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Was in Houston TX for Business and needed a Hotel close to Houston, but far enough away from the city limits. Hotel is new, rooms are large, staff is great, Hotel is very clean and upkept, very very quite for continued work after the day is over, Internet being wireless or hard line never failed. Staff worked very hard to make our stay as close to home away from home! Scale of 1-10, would be an 11, I am in Hotels about 200 plus days a year and can say, this will be my Houston TX hotel. I went through 6 Hotels in 6 days when I reached Houston looking for a quite, clean and secure hotel, this one is where we will come back too. My wife traveld with me on this trip and she throughly enjoy this Hotel for the saftey and quietness!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r120109632-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120109632</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>We had several construction projects going on in the Pearland area. The staff at Candlewood Suites took great care of us during our long stay. It was a nice to be able to come in each evening after a long day to a place that was comfortable and close to the jobsite.I highly recommend this location. Quiet rooms and great staff.Will DelaneyPanterra ConstructionDallas, TX</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r117920827-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>117920827</t>
+  </si>
+  <si>
+    <t>09/10/2011</t>
+  </si>
+  <si>
+    <t>Never Stay Here Rude Staff &amp; Moldy Smell</t>
+  </si>
+  <si>
+    <t>After reading good reviews I booked this hotel through the Candlewood Suites website 2 weeks before arrival for a High School Volleyball tounament.  When I arrived I was told by the front dest that I had canceled my reservation.  After arguing with the front desk and waiting while they waited on other customers for 25 minutes they told me that they had overbooked and they bumped me to another hotel located in Houston.  I was with a group and this was a major problem for me.  They refused to switch rooms with someone that had not checked in yet.  It took me 30 minutes of driving around to find the hotel that they bumped me to because it was new and was not on mapquest.  The next day I drove back to Candlewood Suites to check in only to be put in a room that had a horrible moldy smell.   The General Manager was unapologetic about the inconvience of moving hotels and there was nothing done about the smell even though I told housekeeping.  I travel extensevely and I have never experienced such rude and unprofessional management.  I will never stay in a Candlewood Suites hotel again.  I contacted the hotels home office and was sent a insulting response from the rude General Manager.  I replied and never received a response.  NEVER STAY AT THIS HOTEL!!!!  There are several nicer places to stay in the area.  This hotel also does...After reading good reviews I booked this hotel through the Candlewood Suites website 2 weeks before arrival for a High School Volleyball tounament.  When I arrived I was told by the front dest that I had canceled my reservation.  After arguing with the front desk and waiting while they waited on other customers for 25 minutes they told me that they had overbooked and they bumped me to another hotel located in Houston.  I was with a group and this was a major problem for me.  They refused to switch rooms with someone that had not checked in yet.  It took me 30 minutes of driving around to find the hotel that they bumped me to because it was new and was not on mapquest.  The next day I drove back to Candlewood Suites to check in only to be put in a room that had a horrible moldy smell.   The General Manager was unapologetic about the inconvience of moving hotels and there was nothing done about the smell even though I told housekeeping.  I travel extensevely and I have never experienced such rude and unprofessional management.  I will never stay in a Candlewood Suites hotel again.  I contacted the hotels home office and was sent a insulting response from the rude General Manager.  I replied and never received a response.  NEVER STAY AT THIS HOTEL!!!!  There are several nicer places to stay in the area.  This hotel also does not serve breakfast or have computers for customers to use in the lobby. The walls are paper thin and they did not have airconditioning running in the halls upstairs even though it was 106 outside.  The hallways and elevators were extreamly hot. It might be new but it does not smell like it and beware they might bump you from your room even if you have a confirmed reservation and you might have to drive to Houston for a night like I did.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded September 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2011</t>
+  </si>
+  <si>
+    <t>After reading good reviews I booked this hotel through the Candlewood Suites website 2 weeks before arrival for a High School Volleyball tounament.  When I arrived I was told by the front dest that I had canceled my reservation.  After arguing with the front desk and waiting while they waited on other customers for 25 minutes they told me that they had overbooked and they bumped me to another hotel located in Houston.  I was with a group and this was a major problem for me.  They refused to switch rooms with someone that had not checked in yet.  It took me 30 minutes of driving around to find the hotel that they bumped me to because it was new and was not on mapquest.  The next day I drove back to Candlewood Suites to check in only to be put in a room that had a horrible moldy smell.   The General Manager was unapologetic about the inconvience of moving hotels and there was nothing done about the smell even though I told housekeeping.  I travel extensevely and I have never experienced such rude and unprofessional management.  I will never stay in a Candlewood Suites hotel again.  I contacted the hotels home office and was sent a insulting response from the rude General Manager.  I replied and never received a response.  NEVER STAY AT THIS HOTEL!!!!  There are several nicer places to stay in the area.  This hotel also does...After reading good reviews I booked this hotel through the Candlewood Suites website 2 weeks before arrival for a High School Volleyball tounament.  When I arrived I was told by the front dest that I had canceled my reservation.  After arguing with the front desk and waiting while they waited on other customers for 25 minutes they told me that they had overbooked and they bumped me to another hotel located in Houston.  I was with a group and this was a major problem for me.  They refused to switch rooms with someone that had not checked in yet.  It took me 30 minutes of driving around to find the hotel that they bumped me to because it was new and was not on mapquest.  The next day I drove back to Candlewood Suites to check in only to be put in a room that had a horrible moldy smell.   The General Manager was unapologetic about the inconvience of moving hotels and there was nothing done about the smell even though I told housekeeping.  I travel extensevely and I have never experienced such rude and unprofessional management.  I will never stay in a Candlewood Suites hotel again.  I contacted the hotels home office and was sent a insulting response from the rude General Manager.  I replied and never received a response.  NEVER STAY AT THIS HOTEL!!!!  There are several nicer places to stay in the area.  This hotel also does not serve breakfast or have computers for customers to use in the lobby. The walls are paper thin and they did not have airconditioning running in the halls upstairs even though it was 106 outside.  The hallways and elevators were extreamly hot. It might be new but it does not smell like it and beware they might bump you from your room even if you have a confirmed reservation and you might have to drive to Houston for a night like I did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r115163296-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>115163296</t>
+  </si>
+  <si>
+    <t>07/08/2011</t>
+  </si>
+  <si>
+    <t>Outstanding and highly recommended.</t>
+  </si>
+  <si>
+    <t>The check-in experience was pleasant and the staff had my reservation at hand.  All staff I had access to was professional and extremely courteous.  The room was perfect and comfortable.I will utilize this property in the future when on business or leisure.Note:  This is a brand new facility and still had the "Grand Opening" sign displayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded August 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2011</t>
+  </si>
+  <si>
+    <t>The check-in experience was pleasant and the staff had my reservation at hand.  All staff I had access to was professional and extremely courteous.  The room was perfect and comfortable.I will utilize this property in the future when on business or leisure.Note:  This is a brand new facility and still had the "Grand Opening" sign displayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r114587802-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>114587802</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Staff was so accomodating</t>
+  </si>
+  <si>
+    <t>The staff went out of their way to do special things for my daughter and I that I will always remember. The General Manager has a heart of gold and was extremely generous to me. Natalia was a great staff and person, and very friendly to my daughter. The front desk took care of calls and requests, and the cleaning staff was great in respecting my wishes. The entire staff at the Candlewood Pearland was excellent, and I would stay there again if I have to. They also provided a crib for my daughter. I am truly grateful to these people.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded June 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2011</t>
+  </si>
+  <si>
+    <t>The staff went out of their way to do special things for my daughter and I that I will always remember. The General Manager has a heart of gold and was extremely generous to me. Natalia was a great staff and person, and very friendly to my daughter. The front desk took care of calls and requests, and the cleaning staff was great in respecting my wishes. The entire staff at the Candlewood Pearland was excellent, and I would stay there again if I have to. They also provided a crib for my daughter. I am truly grateful to these people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r90678659-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>90678659</t>
+  </si>
+  <si>
+    <t>12/25/2010</t>
+  </si>
+  <si>
+    <t>Great place to stay!!!</t>
+  </si>
+  <si>
+    <t>I stay in IHG hotels 4 nights a week. This is one of the best most friendly places I have stayed. I not only used my Priority Club points and paid them nothing, they acted like I reserved a whole floor. Great people.MoreShow less</t>
+  </si>
+  <si>
+    <t>operationsmanagercw, Manager at Candlewood Suites, responded to this reviewResponded December 28, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2010</t>
+  </si>
+  <si>
+    <t>I stay in IHG hotels 4 nights a week. This is one of the best most friendly places I have stayed. I not only used my Priority Club points and paid them nothing, they acted like I reserved a whole floor. Great people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r90304767-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>90304767</t>
+  </si>
+  <si>
+    <t>12/20/2010</t>
+  </si>
+  <si>
+    <t>This is the only place to stay period.</t>
+  </si>
+  <si>
+    <t>The price is right the people are very nice. You have full size refergerator, dish washer,cook top that has a timer on it ,you have to love that. You can take a shower put something on the cook top and not worry about it getting burned. They have a cupboard that you can buy food that you need any time of the day or night you don't have to get dressed and get in your car to get something to eat they have it in the little store, how cllo is that. You must try this Suite out if you are here in Pearland or even close by. Come check it out you willnot be disappointed ! I forgot FREE washer and dryers!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>operationsmanagercw, Manager at Candlewood Suites, responded to this reviewResponded December 22, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2010</t>
+  </si>
+  <si>
+    <t>The price is right the people are very nice. You have full size refergerator, dish washer,cook top that has a timer on it ,you have to love that. You can take a shower put something on the cook top and not worry about it getting burned. They have a cupboard that you can buy food that you need any time of the day or night you don't have to get dressed and get in your car to get something to eat they have it in the little store, how cllo is that. You must try this Suite out if you are here in Pearland or even close by. Come check it out you willnot be disappointed ! I forgot FREE washer and dryers!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r89972023-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>89972023</t>
+  </si>
+  <si>
+    <t>12/15/2010</t>
+  </si>
+  <si>
+    <t>THE GREATEST HOTEL EVER</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. Everyone is very courteous and helpful and Kind. The Hotel Is Very Clean and the rooms are great with all the amenities you need to have a great stay and relax. I would highly recommend Candlewood Suites Pearland to any one who travels and comes to Pearland.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>operationsmanagercw, Manager at Candlewood Suites, responded to this reviewResponded December 17, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2010</t>
+  </si>
+  <si>
+    <t>This is a great place to stay. Everyone is very courteous and helpful and Kind. The Hotel Is Very Clean and the rooms are great with all the amenities you need to have a great stay and relax. I would highly recommend Candlewood Suites Pearland to any one who travels and comes to Pearland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r87161106-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>87161106</t>
+  </si>
+  <si>
+    <t>11/15/2010</t>
+  </si>
+  <si>
+    <t>New &amp; Clean</t>
+  </si>
+  <si>
+    <t>The hotel is brand new.  The rooms were clean.  The service at the front desk was great.  All rooms have high spped internet, which is perfect for business travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>operationsmanagercw, Manager at Candlewood Suites, responded to this reviewResponded November 26, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2010</t>
+  </si>
+  <si>
+    <t>The hotel is brand new.  The rooms were clean.  The service at the front desk was great.  All rooms have high spped internet, which is perfect for business travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r85184168-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>85184168</t>
+  </si>
+  <si>
+    <t>10/28/2010</t>
+  </si>
+  <si>
+    <t>This hotel is convenient and accommodating with friendly people in charge.</t>
+  </si>
+  <si>
+    <t>We loved the room, kitchen, bed, and the willing help from the lady named Jennifer when hauling and unloading our carts in our room.  Our only problem was that we needed the towels replaced, old ones picked up, and the floor swept DAILY.  This will lengthen the life of your carpet, and it will keep your rooms looking nice longer!  When we requested this service, we were told we would need to be charged "a little bit extra for that."   Don't know the name of the person at the front desk who told us this over the phone, but he spoke with an accent.  I declined the service.   A few minutes later, a housekeeper showed up to assist us. (???)  Also, a casual, inexpensive restaurant on site would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>We loved the room, kitchen, bed, and the willing help from the lady named Jennifer when hauling and unloading our carts in our room.  Our only problem was that we needed the towels replaced, old ones picked up, and the floor swept DAILY.  This will lengthen the life of your carpet, and it will keep your rooms looking nice longer!  When we requested this service, we were told we would need to be charged "a little bit extra for that."   Don't know the name of the person at the front desk who told us this over the phone, but he spoke with an accent.  I declined the service.   A few minutes later, a housekeeper showed up to assist us. (???)  Also, a casual, inexpensive restaurant on site would have been nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r84494161-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>84494161</t>
+  </si>
+  <si>
+    <t>10/22/2010</t>
+  </si>
+  <si>
+    <t>Pearland's Newest Jewel - best hotel in its class</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood Suites - best hotel for the small business entreprenuer!  After arriving very late for a very early consulting appointment, I was welcomed with a genuine smile (thank you Chad) instead of an empty Front Desk.  Entering the room and collapsing on pillow-top beds were heavenly.  Full kitchen for my snacks and meds (doctors's orders!), wireless internet, and no-hassle express checkout.  Sufficiently equpped Fitness Center for habitual runner. Thank you Candlewood for making my trip into Pearland most enjoyable in my erratic schedule :)MoreShow less</t>
+  </si>
+  <si>
+    <t>spaazzmisty33, Manager at Candlewood Suites, responded to this reviewResponded November 10, 2010</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2010</t>
+  </si>
+  <si>
+    <t>I stayed at the Candlewood Suites - best hotel for the small business entreprenuer!  After arriving very late for a very early consulting appointment, I was welcomed with a genuine smile (thank you Chad) instead of an empty Front Desk.  Entering the room and collapsing on pillow-top beds were heavenly.  Full kitchen for my snacks and meds (doctors's orders!), wireless internet, and no-hassle express checkout.  Sufficiently equpped Fitness Center for habitual runner. Thank you Candlewood for making my trip into Pearland most enjoyable in my erratic schedule :)More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1883,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1915,3623 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>178</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>198</v>
+      </c>
+      <c r="X20" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>206</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>224</v>
+      </c>
+      <c r="X23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>232</v>
+      </c>
+      <c r="X24" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" t="s">
+        <v>239</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>240</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>178</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>264</v>
+      </c>
+      <c r="X28" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" t="s">
+        <v>269</v>
+      </c>
+      <c r="K29" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" t="s">
+        <v>271</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>272</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>276</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" t="s">
+        <v>279</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>280</v>
+      </c>
+      <c r="O30" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>281</v>
+      </c>
+      <c r="X30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>298</v>
+      </c>
+      <c r="X32" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>302</v>
+      </c>
+      <c r="J33" t="s">
+        <v>303</v>
+      </c>
+      <c r="K33" t="s">
+        <v>304</v>
+      </c>
+      <c r="L33" t="s">
+        <v>305</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>307</v>
+      </c>
+      <c r="X33" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>311</v>
+      </c>
+      <c r="J34" t="s">
+        <v>312</v>
+      </c>
+      <c r="K34" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>315</v>
+      </c>
+      <c r="O34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>317</v>
+      </c>
+      <c r="J35" t="s">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>321</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>322</v>
+      </c>
+      <c r="X35" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>328</v>
+      </c>
+      <c r="L36" t="s">
+        <v>329</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>330</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>331</v>
+      </c>
+      <c r="X36" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>335</v>
+      </c>
+      <c r="J37" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s">
+        <v>338</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>339</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>346</v>
+      </c>
+      <c r="O38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>347</v>
+      </c>
+      <c r="X38" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J39" t="s">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L39" t="s">
+        <v>354</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>355</v>
+      </c>
+      <c r="O39" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>347</v>
+      </c>
+      <c r="X39" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>357</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>358</v>
+      </c>
+      <c r="J40" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>347</v>
+      </c>
+      <c r="X40" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>364</v>
+      </c>
+      <c r="J41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s">
+        <v>367</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>368</v>
+      </c>
+      <c r="O41" t="s">
+        <v>88</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>377</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>378</v>
+      </c>
+      <c r="X42" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>383</v>
+      </c>
+      <c r="K43" t="s">
+        <v>144</v>
+      </c>
+      <c r="L43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>385</v>
+      </c>
+      <c r="O43" t="s">
+        <v>88</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>378</v>
+      </c>
+      <c r="X43" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>388</v>
+      </c>
+      <c r="J44" t="s">
+        <v>389</v>
+      </c>
+      <c r="K44" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>392</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>393</v>
+      </c>
+      <c r="X44" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>397</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>399</v>
+      </c>
+      <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>401</v>
+      </c>
+      <c r="O45" t="s">
+        <v>88</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>393</v>
+      </c>
+      <c r="X45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>404</v>
+      </c>
+      <c r="J46" t="s">
+        <v>405</v>
+      </c>
+      <c r="K46" t="s">
+        <v>406</v>
+      </c>
+      <c r="L46" t="s">
+        <v>407</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>408</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>409</v>
+      </c>
+      <c r="J47" t="s">
+        <v>410</v>
+      </c>
+      <c r="K47" t="s">
+        <v>411</v>
+      </c>
+      <c r="L47" t="s">
+        <v>412</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>413</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>414</v>
+      </c>
+      <c r="X47" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>418</v>
+      </c>
+      <c r="J48" t="s">
+        <v>419</v>
+      </c>
+      <c r="K48" t="s">
+        <v>420</v>
+      </c>
+      <c r="L48" t="s">
+        <v>421</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>422</v>
+      </c>
+      <c r="O48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>423</v>
+      </c>
+      <c r="X48" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>426</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>427</v>
+      </c>
+      <c r="J49" t="s">
+        <v>428</v>
+      </c>
+      <c r="K49" t="s">
+        <v>429</v>
+      </c>
+      <c r="L49" t="s">
+        <v>430</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>431</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>432</v>
+      </c>
+      <c r="X49" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>435</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>436</v>
+      </c>
+      <c r="J50" t="s">
+        <v>437</v>
+      </c>
+      <c r="K50" t="s">
+        <v>438</v>
+      </c>
+      <c r="L50" t="s">
+        <v>439</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>440</v>
+      </c>
+      <c r="X50" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>444</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>446</v>
+      </c>
+      <c r="L51" t="s">
+        <v>447</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>448</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>449</v>
+      </c>
+      <c r="X51" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>452</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>453</v>
+      </c>
+      <c r="J52" t="s">
+        <v>454</v>
+      </c>
+      <c r="K52" t="s">
+        <v>455</v>
+      </c>
+      <c r="L52" t="s">
+        <v>456</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>457</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>458</v>
+      </c>
+      <c r="X52" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>461</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>462</v>
+      </c>
+      <c r="J53" t="s">
+        <v>463</v>
+      </c>
+      <c r="K53" t="s">
+        <v>464</v>
+      </c>
+      <c r="L53" t="s">
+        <v>465</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>466</v>
+      </c>
+      <c r="O53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>467</v>
+      </c>
+      <c r="X53" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" t="s">
+        <v>472</v>
+      </c>
+      <c r="K54" t="s">
+        <v>473</v>
+      </c>
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>448</v>
+      </c>
+      <c r="O54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>476</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>477</v>
+      </c>
+      <c r="J55" t="s">
+        <v>478</v>
+      </c>
+      <c r="K55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>448</v>
+      </c>
+      <c r="O55" t="s">
+        <v>88</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>481</v>
+      </c>
+      <c r="X55" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_80.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_80.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="766">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,81 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r603453937-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1493261</t>
+  </si>
+  <si>
+    <t>603453937</t>
+  </si>
+  <si>
     <t>08/06/2018</t>
   </si>
   <si>
+    <t>Too Many Dogs</t>
+  </si>
+  <si>
+    <t>Beware doggie hotel! Stayed next to a guest that had three barking Chauwywas. I have pets of my own and would never consider boarding three pets with me in a small room. I heard every move they made because they barked continuously. In the room, down the hall, around the hotel. When I complained about the number of dogs and the barking, the hotel staff simply stated they were a pet friendly hotel. One pet okay, but three pets is more like a pet hotel from hell!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r587280308-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>587280308</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Best for extended stays not short stays</t>
+  </si>
+  <si>
+    <t>My son booked the room and it wasn't really what we needed or wanted (not the hotel's fault). No breakfast. No pool. Instead, they had kitchenettes, pots and plates, large refrigerators, and laundry facilities. The facility itself was worn and the layout of the room awkward. Nice shower! If you need extended stay at a good price, this is probably the one.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r575537882-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>575537882</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Everything we needed for an extended stay</t>
+  </si>
+  <si>
+    <t>Room was clean and spacious. Lots of amenities including full size refrigerator, microwave, dishwasher and flat top stove. Even dish towels and cooking ware were right at our disposal. Pam and her crew were warm and friendly. She and her staff made us feel so welcome during our bereavement trip. Thank you all so much!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r554599551-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>1493261</t>
-  </si>
-  <si>
     <t>554599551</t>
   </si>
   <si>
@@ -174,9 +237,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded February 2, 2018</t>
   </si>
   <si>
@@ -204,9 +264,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Rooms are thoroughly cleaned every Thursday. Someone comes in and strips the bed and takes the towels and shower curtain. Later someone else comes in and replaces everything and cleans. Last Thursday we waited for our room to be cleaned after it was stripped of linens. We left and came back at 5 o’clock. There were no sheets, towels, shower curtains, the room hadn’t been touched. We called down to the desk, and the response was to ask if we would like service on Friday. We went down to the desk, showed pictures of our bare bed and bath to the person in charge. This response was, Oh the maid said she couldn’t enter...why couldn’t she? Too anxious to start her vacation? Then the desk person said, “would you like some sheets to make your bed?”We decided to leave a day early for a trip, and requested that they make sure our room was ready when we returned. It was. The service had been excellent up to that point, but I am highly disappointed with their response to this situation.More</t>
   </si>
   <si>
@@ -237,6 +294,51 @@
     <t>We evacuated from Hurricane Harvey to here. Mold in the showers, house keeping is around 10 am. everyday. Saturdays is "deep cleaning; you wont need a wake-up call... hope you don't enjoy sleeping in on Saturdays. The maintenance employee is very rude, half the staff doesn't speak English fluently. The hotel is pet friendly but they will charge you out the wazoo for it. The elevators don't work half the time. (hope you don't have a fear of being trapped in an elevator)The people that stay in this hotel are sketchy. We have been here about 3 months and we've been approached by crack heads, drunks, and sexual deviants (intoxicated man looking at women and grabbing his crotch) (long story). NEVER ENOUGH PARKING... ENJOY PARKING ACROSS THE FIRE LANE OR LOADING AREAS... HOPE THE FIRE MARSHALL DOESN'T DECIDE TO STOP BY ON YOUR VISIT HERE. DO NOT WASTE YOUR MONEY! ABSOLUTELY HORRIBLEMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r526123671-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>526123671</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>3 week shelter from Hurricane Harvey floods</t>
+  </si>
+  <si>
+    <t>We had to evacuate from our flooded neighborhood and sought refuge here. A perfect oasis in the storm, we ended up needing to stay for 3 weeks. These suites offered us many of the conveniences of home: kitchen and utensils allowed us to cook - and the pets were able to stay in the suite as well. Internet and Satellite TV worked well. The staff was especially helpful and sympathetic about our circumstances (Pamela at front desk was a constant source of support). We will certainly come back - and for occasions other than flood evacuations!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r506796959-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>506796959</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Hidden charges</t>
+  </si>
+  <si>
+    <t>We booked a room for two nights. The room charge was different each day. The front desk explained some nights are more popular than others. Their hidden fees add up to nearly $30 per night. One add stated "free parking". It's free if you pay $8 per day. The prices in their snack room are more expensive than a meal in a restaurant. The suites look gorgeous online, but the furniture is outdated. The television in my room stopped working properly on each day. The front desk found that a part was missing and rigged the TV to work properly, but didn't have engineers add the missing part. Do not stay here unless you want surprises. You pay city tax, state tax, county tax, sales tax (some taxes were added twice). In other hotels, the taxes are included in the price quoted. You know how to plan your vacation, moneywise, but not at Candlewoods Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded August 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2017</t>
+  </si>
+  <si>
+    <t>We booked a room for two nights. The room charge was different each day. The front desk explained some nights are more popular than others. Their hidden fees add up to nearly $30 per night. One add stated "free parking". It's free if you pay $8 per day. The prices in their snack room are more expensive than a meal in a restaurant. The suites look gorgeous online, but the furniture is outdated. The television in my room stopped working properly on each day. The front desk found that a part was missing and rigged the TV to work properly, but didn't have engineers add the missing part. Do not stay here unless you want surprises. You pay city tax, state tax, county tax, sales tax (some taxes were added twice). In other hotels, the taxes are included in the price quoted. You know how to plan your vacation, moneywise, but not at Candlewoods Suites.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r497257831-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -250,9 +352,6 @@
   </si>
   <si>
     <t>There was rust around tub there was a roach went down told her she was going to give me spray to handle it I was not going to took a long time to get ices marker in room then went down to ask her something she didn't talk to me faces faces there was a spider the room it has been raining probably weartherMoreShow less</t>
-  </si>
-  <si>
-    <t>June 2017</t>
   </si>
   <si>
     <t>IHGService, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded July 14, 2017</t>
@@ -312,15 +411,57 @@
 Nice business center where...I am very pleased at the level of professionalism, courtesy, patience and outstanding customer service given by Pamela the front desk staff. Pamela was very kind and accommodating to my needs and inquiries as a guest. I am very appreciative to this level of outstanding service, it is a quite a rare jewel in today's society. Free coffee and hot cocoa is available. Free fruit available, although I wish a better variety of fresh fruit was available (apples, oranges,bananas). Nice lounge in entry area. variety of snacks,sandwiches, microwave meals, and cold beverages for sale in gift shop but are pricey. A Target is located down about 3-5 min down the road. Lots of banks and eateries within 3-8 minutes on the roads location. Depending on the time of day traffic can be heavy on Broadway st , it's very popular area. Rooms are a bit outdated, one chair was badly stained in different spots. Leather chair was worn down leather had been peeling off. Carpet was a bit stained and looked old but they do have microwaves, full sized refrigerators, kitchen sink, drain board with cabinets and mini stove to cook on. They charge a $50 fee to hold in addition in case something is stolen or broken during your stay, you receive it back when you check out of the hotel. They do not serve free Hot breakfast. However, many restaurants are within short distance. Nice business center where you can use the computer, Internet and print or copy documents if needed. However, the volume was not working on one computer.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I am very pleased at the level of professionalism, courtesy, patience and outstanding customer service given by Pamela the front desk staff. Pamela was very kind and accommodating to my needs and inquiries as a guest. I am very appreciative to this level of outstanding service, it is a quite a rare jewel in today's society. Free coffee and hot cocoa is available. Free fruit available, although I wish a better variety of fresh fruit was available (apples, oranges,bananas). 
 Nice lounge in entry area. variety of snacks,sandwiches, microwave meals, and cold beverages for sale in gift shop but are pricey. A Target is located down about 3-5 min down the road. Lots of banks and eateries within 3-8 minutes on the roads location. Depending on the time of day traffic can be heavy on Broadway st , it's very popular area. 
 Rooms are a bit outdated, one chair was badly stained in different spots. Leather chair was worn down leather had been peeling off. Carpet was a bit stained and looked old but they do have microwaves, full sized refrigerators, kitchen sink, drain board with cabinets and mini stove to cook on. They charge a $50 fee to hold in addition in case something is stolen or broken during your stay, you receive it back when you check out of the hotel. They do not serve free Hot breakfast. However, many restaurants are within short distance. 
 Nice business center where...I am very pleased at the level of professionalism, courtesy, patience and outstanding customer service given by Pamela the front desk staff. Pamela was very kind and accommodating to my needs and inquiries as a guest. I am very appreciative to this level of outstanding service, it is a quite a rare jewel in today's society. Free coffee and hot cocoa is available. Free fruit available, although I wish a better variety of fresh fruit was available (apples, oranges,bananas). Nice lounge in entry area. variety of snacks,sandwiches, microwave meals, and cold beverages for sale in gift shop but are pricey. A Target is located down about 3-5 min down the road. Lots of banks and eateries within 3-8 minutes on the roads location. Depending on the time of day traffic can be heavy on Broadway st , it's very popular area. Rooms are a bit outdated, one chair was badly stained in different spots. Leather chair was worn down leather had been peeling off. Carpet was a bit stained and looked old but they do have microwaves, full sized refrigerators, kitchen sink, drain board with cabinets and mini stove to cook on. They charge a $50 fee to hold in addition in case something is stolen or broken during your stay, you receive it back when you check out of the hotel. They do not serve free Hot breakfast. However, many restaurants are within short distance. Nice business center where you can use the computer, Internet and print or copy documents if needed. However, the volume was not working on one computer.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r472181478-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>472181478</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>The entire Staff group was wonderful. Always took great care of me and issues i may have had. Pamela was very helpful and ready to accommodate to make my stay smoother . Rooms were always clean. Anytime I am in the area this will be the hotel ill be choosing to stay at,</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r458109806-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>458109806</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Ok place to stay. Nice Staff</t>
+  </si>
+  <si>
+    <t>Stayed here two nights for the super bowl. Great location. Staff very nice and helpful. However, the bed was awful. Need to update the rooms. the leather chairs in the room were worn out and had rips. Need replacing. Also, do not stay in room 203 - it's right over the laundry room and when the dryers room the room sounds like a train is coming thru. Asked about it and was not able to move rooms.  Other than that issue we had a pleasant stay. NOTE to hotel - update the rooms - no one likes to sit in an old worn out leather chair.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here two nights for the super bowl. Great location. Staff very nice and helpful. However, the bed was awful. Need to update the rooms. the leather chairs in the room were worn out and had rips. Need replacing. Also, do not stay in room 203 - it's right over the laundry room and when the dryers room the room sounds like a train is coming thru. Asked about it and was not able to move rooms.  Other than that issue we had a pleasant stay. NOTE to hotel - update the rooms - no one likes to sit in an old worn out leather chair.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r452793284-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -328,9 +469,6 @@
   </si>
   <si>
     <t>01/17/2017</t>
-  </si>
-  <si>
-    <t>Great staff</t>
   </si>
   <si>
     <t>Great staff at this hotel. The staff made sure we had everything we needed. The room was immaculate. Plenty of parking. Great value. Whatever you are looking for they will point you in the right direction. My husband and I  would highly recommend it.MoreShow less</t>
@@ -401,6 +539,60 @@
    I went downstairs and informed the front desk. I tried to explain the situation, rationally. I couldn't get a word in edgewise. Very frustrating. She said she would call manager. I will cut this very long story short. After a total of a few hours. A maintenance guy came and replaced the unit in my room with a old unit that was stuck in 1 mode. It...   I usually have a great experience at Candlewood Suites. This whole trip, which will be 5 weeks long, will be a giant disappointment.   Last week, was sleep deprived. Had people on both sides of me playing loud TV and other loud music till the wee hours of the morning for 2 days. Informed front desk, nothing done. Poor internet connection all around.   This week started off with a bang. Came into room after I got off work to find the room door coming off its hinges. Looks like someone recently kicked it in. I thought nothing of it. Got a philips screw driver and put the bottom hinge back on with screws on floor inside room against wall. After that, moved my luggage further inside room. Turned AC down. Nothing happened. I set it to 68. Actual temp was 77 at the time((got as high as 84)). Went down stairs and sat outside for a few mins. Went back up and noticed the fan mode was stuck on and AC still not working.    I went downstairs and informed the front desk. I tried to explain the situation, rationally. I couldn't get a word in edgewise. Very frustrating. She said she would call manager. I will cut this very long story short. After a total of a few hours. A maintenance guy came and replaced the unit in my room with a old unit that was stuck in 1 mode. It cooled the room a little bit but was still sticky in room.( humid)   Overall, after what I've seen, this place should remove the Candlewood name, because I've stayed at many Candlewood Inns and Suites. In many states. And this place is a disgrace to the name. Stay away, La Quinta across street, much better there.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r446293228-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>446293228</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>I'll  never go back !!!!!</t>
+  </si>
+  <si>
+    <t>I used my points earned  from IHG rewards.  My room was not as it looked on line, I got free if you know wh a t mean. Don't  mention the laundry  room , to many out of order tags. Oh yeah the in specters where there had to emty refrigerators.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>I used my points earned  from IHG rewards.  My room was not as it looked on line, I got free if you know wh a t mean. Don't  mention the laundry  room , to many out of order tags. Oh yeah the in specters where there had to emty refrigerators.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r433254989-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>433254989</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Inexpensive - friendly staff</t>
+  </si>
+  <si>
+    <t>We booked through Hotwire for a prepaid attractive rate. The property was supposed to be an all-suite hotel. We were given a standard sized room with a queen bed. Hotwire’s payment to the motel was declined so I had to spend a half an hour on the phone straightening it out. The room was okay. It had a full kitchen including a refrigerator with a noisy ice maker. The cleaning products used by housekeeping had an unpleasant odor. The curb cuts were sparse and in inconvenient locations so it was a bit of a challenge wheeling our luggage into the building. The front desk staff was friendly but were rarely at the desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>We booked through Hotwire for a prepaid attractive rate. The property was supposed to be an all-suite hotel. We were given a standard sized room with a queen bed. Hotwire’s payment to the motel was declined so I had to spend a half an hour on the phone straightening it out. The room was okay. It had a full kitchen including a refrigerator with a noisy ice maker. The cleaning products used by housekeeping had an unpleasant odor. The curb cuts were sparse and in inconvenient locations so it was a bit of a challenge wheeling our luggage into the building. The front desk staff was friendly but were rarely at the desk.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r419575068-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -482,6 +674,48 @@
     <t>Keysha got my mail in the pouring rain the staff is very helpful n courtious would highly recommend in the future the rooms are very clean and the housekeeping is very considerate social night here every Wednesday free beer and foodMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r377116600-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>377116600</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Anticipating needs, wants and desires</t>
+  </si>
+  <si>
+    <t>Pamela is magnificient...she is one of the most conscientious hospitality representatives  I have had the pleasure ofencountering...She anticipatedmy needs, wants and desires ever since myinitial phone call confirming my reservation...she helped me locate the best route to reach hotel avoiding tolls...saving me money...and treated me as if I were the president of the USA once I reached the hotel...I hope I will have the opportunity to stay at the property in the near futureMoreShow less</t>
+  </si>
+  <si>
+    <t>Pamela is magnificient...she is one of the most conscientious hospitality representatives  I have had the pleasure ofencountering...She anticipatedmy needs, wants and desires ever since myinitial phone call confirming my reservation...she helped me locate the best route to reach hotel avoiding tolls...saving me money...and treated me as if I were the president of the USA once I reached the hotel...I hope I will have the opportunity to stay at the property in the near futureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r375238673-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>375238673</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Nice Candlewood stay in Pearland, TX</t>
+  </si>
+  <si>
+    <t>Racquel and the staff at the Pearland Candlewood Suites went out of their way to accommodate us during our 3 week stay. Clean rooms, 24hr desk attendant, Wed night happy hour, free laundry, nice amenities. Thank you all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Racquel and the staff at the Pearland Candlewood Suites went out of their way to accommodate us during our 3 week stay. Clean rooms, 24hr desk attendant, Wed night happy hour, free laundry, nice amenities. Thank you all.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r373389398-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -548,33 +782,72 @@
     <t xml:space="preserve">Stayed here during a quick visit with family. Staff is friendly and accommodating. Hotel is conveniently located, walking distance to local eateries. Room was comfortable and has kitchenette. We were in front facing room and had no issues with noise. This is a pet friendly hotel, and seemed to be very well kept. Free wash and dry in laundry room was an added bonus. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r362144695-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>362144695</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Amazing customer service!!!</t>
+  </si>
+  <si>
+    <t>This candlewood has amazing customer service. Pam nichole and adrienne are amazing. Pam did a whole tour with us and nichole was amazing with check in. Adrienne handled a situation with another customer being unruly and they all have gone above and beyond anything expedted. not to mention rachel taking care of us from moment one. These 4 ladies have made us feel like royalty! MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>This candlewood has amazing customer service. Pam nichole and adrienne are amazing. Pam did a whole tour with us and nichole was amazing with check in. Adrienne handled a situation with another customer being unruly and they all have gone above and beyond anything expedted. not to mention rachel taking care of us from moment one. These 4 ladies have made us feel like royalty! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r350587802-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>350587802</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>"I thought I was home!!!"</t>
+  </si>
+  <si>
+    <t>Fast, Friendly, Courteous!!  This was by far the best stay. Rachel was a breath of fresh air to a hectic day and took care of me promptly. One of the managers I think he was, Mr. Turico,  even help me get my things out of my car.  I was supposed to stay at another hotel but for some reason they didn't have my reservations OR rooms so I was "forced" to come to this hotel.  I regret not making this my first choice.  They gave great recommendations to various amenities in the area and called to check on me after I got to my room!! This type of service you don't see everyday but oh how I wish we would! I come to the area often and this hotel is the ONLY hotel I will stay in from now on!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Fast, Friendly, Courteous!!  This was by far the best stay. Rachel was a breath of fresh air to a hectic day and took care of me promptly. One of the managers I think he was, Mr. Turico,  even help me get my things out of my car.  I was supposed to stay at another hotel but for some reason they didn't have my reservations OR rooms so I was "forced" to come to this hotel.  I regret not making this my first choice.  They gave great recommendations to various amenities in the area and called to check on me after I got to my room!! This type of service you don't see everyday but oh how I wish we would! I come to the area often and this hotel is the ONLY hotel I will stay in from now on!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r350585832-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
     <t>350585832</t>
   </si>
   <si>
-    <t>02/24/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">My experience </t>
   </si>
   <si>
     <t>Love the staff.... great environment.  Very professional  and great customer service.  VERY CLEAN AND NEAT. Also they had fast check in time an turn  arounds. Will recommend  this to any of my family and friends. This is a must stay hotel.MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded February 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded February 25, 2016</t>
-  </si>
-  <si>
     <t>Love the staff.... great environment.  Very professional  and great customer service.  VERY CLEAN AND NEAT. Also they had fast check in time an turn  arounds. Will recommend  this to any of my family and friends. This is a must stay hotel.More</t>
   </si>
   <si>
@@ -608,6 +881,57 @@
     <t>Love the management and front desk staff! Enjoyed the time there with my friends and the cupboard is so convenient as well as the lending locker, would definitely stay again. The weekend was very pleasant and I felt so at home staying at this locationMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r344854660-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>344854660</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Loved my stay</t>
+  </si>
+  <si>
+    <t>They have great rooms that are clean and very comforting. The kitchen in the room is nice and has most everything you need to cook. The staff is very friendly, Pam and Adreanne are welcoming you every time you come in and wishing you a good day when you leave! They even feed the whole hotel once a week with some sort of meal. Pam and Adreanne had host the social and it was welcoming.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>They have great rooms that are clean and very comforting. The kitchen in the room is nice and has most everything you need to cook. The staff is very friendly, Pam and Adreanne are welcoming you every time you come in and wishing you a good day when you leave! They even feed the whole hotel once a week with some sort of meal. Pam and Adreanne had host the social and it was welcoming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r343391440-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>343391440</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>We love Candlewood Suites, Pearland!  Clean and very friendly staff!</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for two months as we were transitioning from Dallas to Houston.  The staff is very friendly (especially Pam)  and the hotel is very clean.  Having access to the free laundry and gym equipment is a definite plus.  I highly recommend Candlewood Suites, Pearland!!!Gina BurrellMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for two months as we were transitioning from Dallas to Houston.  The staff is very friendly (especially Pam)  and the hotel is very clean.  Having access to the free laundry and gym equipment is a definite plus.  I highly recommend Candlewood Suites, Pearland!!!Gina BurrellMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r341523435-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -689,6 +1013,48 @@
     <t>A clean suite, friendly and helpful staff especially Pamela at the front desk.  Plenty of parking spaces.  The hotel is at a very convenient location closed to shops and restaurants, yet the immediate surrounding is very quiet.  I would stay here again.  It didn't get a perfect score because I could hear foot steps from the floor above.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r324762160-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>324762160</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>visit with a family member receiving cancer treatment</t>
+  </si>
+  <si>
+    <t>We were greeted by Pamela,a very nice, courteous, and very helpful front desk agent. To us it was very important to have such a wonderful person help us and inform us about the surrounding area especially when you are in an area you are not familiar. Pamela is an exceptional, caring, and great person. Candlewood Suites should be  proud to have such a great employee. Thank you Pamela.Pedro and Irma DiazSilver City, New MexicoMoreShow less</t>
+  </si>
+  <si>
+    <t>We were greeted by Pamela,a very nice, courteous, and very helpful front desk agent. To us it was very important to have such a wonderful person help us and inform us about the surrounding area especially when you are in an area you are not familiar. Pamela is an exceptional, caring, and great person. Candlewood Suites should be  proud to have such a great employee. Thank you Pamela.Pedro and Irma DiazSilver City, New MexicoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r322451839-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>322451839</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable </t>
+  </si>
+  <si>
+    <t>Stayed here for one night for business purposes and was very pleased with the experience I had. Extremely polite staff and very clean and stocked rooms. Would definitely recommend this place to anyone that needs a a great place to stay for a few days.  The kitchenette was very well stocked in whatever cooking tools you need MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for one night for business purposes and was very pleased with the experience I had. Extremely polite staff and very clean and stocked rooms. Would definitely recommend this place to anyone that needs a a great place to stay for a few days.  The kitchenette was very well stocked in whatever cooking tools you need More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r317505026-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -764,6 +1130,60 @@
     <t>Came down with my fiancé to live in this new area, we needed a temporary place that offered extended stay and I found this place, very clean housekeeping was amazing, staff were extremely friendly and the manager alpesh was amazing! My car keys were returned after a month due to me dropping them down the  elevator down to the basement, I was amazed with the generous and comforting environment ! Would definitely stay againFelt like a little home!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r293330257-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>293330257</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Relaxing and Convenient</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here for a swim meet with my two children and husband.  Great help to have full refrigerator and cooktop!  Pans and utensils- even measuring cups are provided.  There is a stash downstairs of different cooking tools if you need something else.  We had a very quiet, top floor room.  Beds were very comfortable - only drawback is the double bed can be a bit small for two tall people (6'5 and 5'8) - not the hotels fault!  We will definitely stay here again.  Front Desk staff were extremely friendly!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Spent 3 nights here for a swim meet with my two children and husband.  Great help to have full refrigerator and cooktop!  Pans and utensils- even measuring cups are provided.  There is a stash downstairs of different cooking tools if you need something else.  We had a very quiet, top floor room.  Beds were very comfortable - only drawback is the double bed can be a bit small for two tall people (6'5 and 5'8) - not the hotels fault!  We will definitely stay here again.  Front Desk staff were extremely friendly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r281195898-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>281195898</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>We stayed here for about 2 weeks while we waited on our house to be ready. The washer/dryer is free which makes being away from home a little easier in regards to expenses. The front desk staff are friendly.  I can't remember the name of the woman that works at night, she was so funny and brightened my day. It isn't easy having to stay for a while with children so seeing her smile and having her friendly conversation went a long way with me. The hotel isn't far from eateries and the mall was about 15 minutes away. The only negative thing I noted was the fact that there were no carts available when we came and checked out, we looked down every hall on every floor and in every stairwell. We ended up having to make multiple trips to the car to get all of our belongings. Other than that we enjoyed our stay and would recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for about 2 weeks while we waited on our house to be ready. The washer/dryer is free which makes being away from home a little easier in regards to expenses. The front desk staff are friendly.  I can't remember the name of the woman that works at night, she was so funny and brightened my day. It isn't easy having to stay for a while with children so seeing her smile and having her friendly conversation went a long way with me. The hotel isn't far from eateries and the mall was about 15 minutes away. The only negative thing I noted was the fact that there were no carts available when we came and checked out, we looked down every hall on every floor and in every stairwell. We ended up having to make multiple trips to the car to get all of our belongings. Other than that we enjoyed our stay and would recommend staying here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r280043102-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -782,12 +1202,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded June 24, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 24, 2015</t>
-  </si>
-  <si>
     <t>Nice hotel, with a snack store, close to shopping, dining and in a good neighborhood.No problems with checking in or out. Room was clean with cold A/C, and good hi speed internet.Quiet surroundings. Full Fridge and microwave in the suite.More</t>
   </si>
   <si>
@@ -833,6 +1247,51 @@
     <t>Yes think thrice before moving in to this hotelThis is the worse of candlewood suites I ever been across in my whole life, worst ever in USA.Well I came across some untidy towels&amp; I gave them for exchanging to the front desk, the receptionist told me she will let me know whenever it's ready after washing.BUT She never replied back regarding this issue nor the housekeeping visited my room during my three night stay. I even once recommended the front desk to send in housekeeping to my room that too went unanswered.Front desk will never acknowledge u as a IHG Rewards member too!People please there are lot of other hotels in Houston for a comfortable stay So think!!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r271687635-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>271687635</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel with kitchen. Hotel staff accomadating especially Leanna.</t>
+  </si>
+  <si>
+    <t>.I really liked the 24 hour free laundry. The rooms have a full size refrigerator with icemaker.  There is also a computer room with printer and fax. There are severalrestaurants in the area, a mall and movie theater.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r263170217-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>263170217</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Big Bug Problem</t>
+  </si>
+  <si>
+    <t>I have encountered 5 different types of bugs during my extended stay here at the CandleWood Suites in Pearland, Tx. At first I saw tiny spiders crawling along the floor in the bathroom. I reported it and they came up the next day and sprayed. I saw a tiny roach in my bathtub but it crawled in the cracks where the shower is so I plugged the cracks with toothpaste because management said the only thing they could do was spray instead of caulk the cracks. Then I saw a silverfish while I was in the shower which crawled back into another crack that i, again, plugged with my toothpaste. The worst was when I ate beetles that got into my cereal... I saw another spider and by that time the only thing they said they could do was make me move rooms. I felt a little more at ease in the new room until I stuck my foot in my slipper with a food roach in it. It was not a tree roach... I called the front desk which was useless because the guy named Derek said he wouldn't come kill the roach. Adrienne is the only one of their staff who was helpful. So now they have me playing musical chairs with their hotel rooms and its digusting, all I'm seeing is bigger and nastier bugs that aren't afraid of humans. They've been here. DO NOT STAY HERE....I have encountered 5 different types of bugs during my extended stay here at the CandleWood Suites in Pearland, Tx. At first I saw tiny spiders crawling along the floor in the bathroom. I reported it and they came up the next day and sprayed. I saw a tiny roach in my bathtub but it crawled in the cracks where the shower is so I plugged the cracks with toothpaste because management said the only thing they could do was spray instead of caulk the cracks. Then I saw a silverfish while I was in the shower which crawled back into another crack that i, again, plugged with my toothpaste. The worst was when I ate beetles that got into my cereal... I saw another spider and by that time the only thing they said they could do was make me move rooms. I felt a little more at ease in the new room until I stuck my foot in my slipper with a food roach in it. It was not a tree roach... I called the front desk which was useless because the guy named Derek said he wouldn't come kill the roach. Adrienne is the only one of their staff who was helpful. So now they have me playing musical chairs with their hotel rooms and its digusting, all I'm seeing is bigger and nastier bugs that aren't afraid of humans. They've been here. DO NOT STAY HERE. They cannot contain this roach problem and managements solution is to make you move rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>I have encountered 5 different types of bugs during my extended stay here at the CandleWood Suites in Pearland, Tx. At first I saw tiny spiders crawling along the floor in the bathroom. I reported it and they came up the next day and sprayed. I saw a tiny roach in my bathtub but it crawled in the cracks where the shower is so I plugged the cracks with toothpaste because management said the only thing they could do was spray instead of caulk the cracks. Then I saw a silverfish while I was in the shower which crawled back into another crack that i, again, plugged with my toothpaste. The worst was when I ate beetles that got into my cereal... I saw another spider and by that time the only thing they said they could do was make me move rooms. I felt a little more at ease in the new room until I stuck my foot in my slipper with a food roach in it. It was not a tree roach... I called the front desk which was useless because the guy named Derek said he wouldn't come kill the roach. Adrienne is the only one of their staff who was helpful. So now they have me playing musical chairs with their hotel rooms and its digusting, all I'm seeing is bigger and nastier bugs that aren't afraid of humans. They've been here. DO NOT STAY HERE....I have encountered 5 different types of bugs during my extended stay here at the CandleWood Suites in Pearland, Tx. At first I saw tiny spiders crawling along the floor in the bathroom. I reported it and they came up the next day and sprayed. I saw a tiny roach in my bathtub but it crawled in the cracks where the shower is so I plugged the cracks with toothpaste because management said the only thing they could do was spray instead of caulk the cracks. Then I saw a silverfish while I was in the shower which crawled back into another crack that i, again, plugged with my toothpaste. The worst was when I ate beetles that got into my cereal... I saw another spider and by that time the only thing they said they could do was make me move rooms. I felt a little more at ease in the new room until I stuck my foot in my slipper with a food roach in it. It was not a tree roach... I called the front desk which was useless because the guy named Derek said he wouldn't come kill the roach. Adrienne is the only one of their staff who was helpful. So now they have me playing musical chairs with their hotel rooms and its digusting, all I'm seeing is bigger and nastier bugs that aren't afraid of humans. They've been here. DO NOT STAY HERE. They cannot contain this roach problem and managements solution is to make you move rooms.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r256182481-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1365,60 @@
   </si>
   <si>
     <t>Stayed 2 nights in order to find apartment for my child who is moving here. Clean, comfy,such helpful front desk people. Special shout out to Antoinette at the front desk. Really helped us with info. Great price in a good location. Would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r239678086-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>239678086</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Enjoyed My Stay</t>
+  </si>
+  <si>
+    <t>This hotel had everything you could want in an affordable hotel stay. The rooms were first and foremost clean,and a nice size. The staff was polite and courteous. it is a little bit away from Houston and the downtown or gallery area but only about 15-20 min away. Everything was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>This hotel had everything you could want in an affordable hotel stay. The rooms were first and foremost clean,and a nice size. The staff was polite and courteous. it is a little bit away from Houston and the downtown or gallery area but only about 15-20 min away. Everything was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r219790413-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>219790413</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Long stay but good one</t>
+  </si>
+  <si>
+    <t>My husband and I recently completed a year long stay while selling a house and building a new one.  It was a tough time for us but the Manager, Alpesh, and his staff were always helpful and friendly no matter what our problem or request was.  Once, Alpesh made a special late night trip back to the hotel to fix a problem with our hot water.  My husband loved the well stocked pantry, especially when he needed a midnight ice cream fix!  The suite and public areas were always kept clean.  From the cleaning staff to the front desk and maintenance staff,  all were fantastic.  Thanks for making our stay a good one. We feel you were like family.  Mike &amp; MaryMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded August 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I recently completed a year long stay while selling a house and building a new one.  It was a tough time for us but the Manager, Alpesh, and his staff were always helpful and friendly no matter what our problem or request was.  Once, Alpesh made a special late night trip back to the hotel to fix a problem with our hot water.  My husband loved the well stocked pantry, especially when he needed a midnight ice cream fix!  The suite and public areas were always kept clean.  From the cleaning staff to the front desk and maintenance staff,  all were fantastic.  Thanks for making our stay a good one. We feel you were like family.  Mike &amp; MaryMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r208601455-Candlewood_Suites-Pearland_Texas.html</t>
@@ -988,6 +1501,48 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r188553612-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>188553612</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Our stay at Candlewood Suites</t>
+  </si>
+  <si>
+    <t>Excellent hotel. Clean, very friendly staff, high ceilings, very nice furnishings, fluffy towels, granite kitchen counters. We really wanted to find a lovely place to stay as it was Christmas and didn't want to have a bad experience at a hotel. We were surprised to find just how lovely the Candlewood is! It was the perfect choice. We will definitely stay there again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r185315702-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>185315702</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Stay Away from it!</t>
+  </si>
+  <si>
+    <t>This Hotel is not worth for the money. It took them three days to sort out a problem with the lock mechanism of my room and then eventually they offered me another room. Phone in this second room was not working, asked for help multiple times, the Hotel manager with a superior attitude was insisting that the phone was working then eventually i gave up he never took the time to come to the room and try it. Air conditioning  is extremely loud and wakes you up every time it comes on. They do not make up rooms daily, so you are left to keep your room in decent conditions by yourself. They charge slightly less than the other hotels in the area but the service is Dreadful. Really one of the worst experiences ever had and mainly due to the ineffective,arrogant and careless Hotel Manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded December 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2013</t>
+  </si>
+  <si>
+    <t>This Hotel is not worth for the money. It took them three days to sort out a problem with the lock mechanism of my room and then eventually they offered me another room. Phone in this second room was not working, asked for help multiple times, the Hotel manager with a superior attitude was insisting that the phone was working then eventually i gave up he never took the time to come to the room and try it. Air conditioning  is extremely loud and wakes you up every time it comes on. They do not make up rooms daily, so you are left to keep your room in decent conditions by yourself. They charge slightly less than the other hotels in the area but the service is Dreadful. Really one of the worst experiences ever had and mainly due to the ineffective,arrogant and careless Hotel Manager.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r184521225-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1003,9 +1558,6 @@
     <t>November 7, 2013We had the privilege of staying only one night in this hotel but plan to go back for a longer stay.  It was perfect...fantastic shower and good bed. There was a very adequate kitchen, also.  Super clean and an absolutely wonderful person who checked us in.  She even called after we got into the room to make sure everything was as we expected.This was our first stay at Candlewood Suites but we will be looking for them in the future and would highly recommend the hotel.MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded November 13, 2013</t>
   </si>
   <si>
@@ -1063,6 +1615,60 @@
     <t>Our family checked in on July 27 and checked out July 28th. The individual that checked us in gave us a room that was occupied by another guest! I am just grateful that the guest was not in the room. The individual that checked us in was quite nonchalant about the whole situation it was only after we settled in to the new room did she call and apologize. Later as we got  the kids ready for bed, my daughter looked up and started shrieking. In front of us was a roach the size of my thumb! We immediately reported it to the front desk and was told that the hotel was fully booked. I was uncomfortable for the rest of the night. My husband asked to speak to the manager and was told that managers are only available Monday through Thursday. We got back and called again and was promised that a manager would call back. We never received a phone call. I will not stay at this location again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r166080168-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>166080168</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>"THUMBS DOWN"</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during the Memorial Day weekend.  The air conditioner stopped working Friday night.  I was advised Saturday morning by Teriko that maintenance would not be available until Monday.  I had to move all of our belongings to another room.  I later discovered that my charger had been left in the first room.  I explained to the front desk clerk, Lavonte, that we had to move and the charger had been left.  She was rude and offered no assistance in the matter.  Later that night I spoke to the manager, Alpesh, who was equally as rude as the desk clerk.  I have since filed a complaint with corporate.  I received an email from Alpesh who stated that he was going to meet with his staff and he would get back with me within 48 hours to resolve my issues.  I have not heard back from him.  His unprofessionalism gives Candlewood Suites a bad name.  I do not recommend this hotel to anyone who expects to receive superior service.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during the Memorial Day weekend.  The air conditioner stopped working Friday night.  I was advised Saturday morning by Teriko that maintenance would not be available until Monday.  I had to move all of our belongings to another room.  I later discovered that my charger had been left in the first room.  I explained to the front desk clerk, Lavonte, that we had to move and the charger had been left.  She was rude and offered no assistance in the matter.  Later that night I spoke to the manager, Alpesh, who was equally as rude as the desk clerk.  I have since filed a complaint with corporate.  I received an email from Alpesh who stated that he was going to meet with his staff and he would get back with me within 48 hours to resolve my issues.  I have not heard back from him.  His unprofessionalism gives Candlewood Suites a bad name.  I do not recommend this hotel to anyone who expects to receive superior service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r146768779-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>146768779</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>Excellent Extended Stay Hotel with Full Range of Amenities</t>
+  </si>
+  <si>
+    <t>From the moment you arrived there is courtesy, and a demonstrated warmth. The Front Desk personnel are attentive and responsive. Nicole is excellent and highly professional; she shows a genuine concern for the needs and comfort of the guest. The overall staff is professional and quick to respond to expressed needs. It is an extended stay hotel wiith modern amenities (range, full size refrigerator and microwave and dishwasher, cutlery, and dishes, 42" Flat Screen TV). It close to a wide range of businesses - Walmart, Ross, Target, Macy's, CVS, Chase, Bank of America, etc., as well as restuarants. In addition, there is a free of charge business center, laundry, and gym. I recommend this hotel to the travel that is looking for comfort and amenities at a reasonable rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded January 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2013</t>
+  </si>
+  <si>
+    <t>From the moment you arrived there is courtesy, and a demonstrated warmth. The Front Desk personnel are attentive and responsive. Nicole is excellent and highly professional; she shows a genuine concern for the needs and comfort of the guest. The overall staff is professional and quick to respond to expressed needs. It is an extended stay hotel wiith modern amenities (range, full size refrigerator and microwave and dishwasher, cutlery, and dishes, 42" Flat Screen TV). It close to a wide range of businesses - Walmart, Ross, Target, Macy's, CVS, Chase, Bank of America, etc., as well as restuarants. In addition, there is a free of charge business center, laundry, and gym. I recommend this hotel to the travel that is looking for comfort and amenities at a reasonable rate.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r145468395-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1081,12 +1687,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded January 18, 2013</t>
-  </si>
-  <si>
-    <t>Responded January 18, 2013</t>
-  </si>
-  <si>
     <t>Excellent saff --Alpesh is the one to talk to if you have any problems which I never do but still nice to talk to. Rooms are clean and fresh. My workers always ask to stay at the hotel in Pearland TX there are other hotels but they like this one.Coffee is always on and I live by coffee! Cupboard has different items so you don't have to get out if you don't want to just pick something and take it to your room.This is great hotel for those on budget keep more money in your pocket to injoy the sites around you.More</t>
   </si>
   <si>
@@ -1129,6 +1729,45 @@
     <t>I was in the Houston area and stayed in Pearland, TX. I was very pleased with my stay at this hotel. The agent Teriko was very polite and hospitable!!! A++ for the Candlewood. I would recommend this hotel to all my family and friends.  I am planning another trip and I will be choosing the Candlewood of coarse...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r139580307-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>139580307</t>
+  </si>
+  <si>
+    <t>Perfect Getaway!</t>
+  </si>
+  <si>
+    <t>Overall I had an amazing experience! Teriko was a huge asset to my extended stay. very professional and polite. I will brag about the service to my family and friends. I also will definitely be visiting again in the future..MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall I had an amazing experience! Teriko was a huge asset to my extended stay. very professional and polite. I will brag about the service to my family and friends. I also will definitely be visiting again in the future..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r138333912-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>138333912</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>No towels...</t>
+  </si>
+  <si>
+    <t>I stayed for an extended period of time. Front desk and housekeeping refused to give clean towels daily. " why can't you use yesterday's towels" really??? Breakfast is a basket of bruised apples and coffee. General manager is rude! The carpet smells bad. Not worth the money!MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Front Office Manager at Candlewood Suites, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>I stayed for an extended period of time. Front desk and housekeeping refused to give clean towels daily. " why can't you use yesterday's towels" really??? Breakfast is a basket of bruised apples and coffee. General manager is rude! The carpet smells bad. Not worth the money!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r131509685-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1840,54 @@
     <t>I had to train for my new job in Pearlan, Tx for 2 and a half months. During my time there I stayed at Candlewood Suites, all I can say is that the staff and housing made the time away from home easy on me. The staff was very polite an helpful, and the hosuing was excellent. The stove, full size fridge, laundry room, and patio made the time there perfect. If I ever find myself in Pearland again I will definitely be staying there againMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r123060349-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>123060349</t>
+  </si>
+  <si>
+    <t>01/14/2012</t>
+  </si>
+  <si>
+    <t>Great New Hotel!</t>
+  </si>
+  <si>
+    <t>I stayed here one night during a business trip to the area. I had a one-bedroom with a queen bed.  The hotel was very clean - the front desk staff were genuinely friendly and helpful.  The room was laid out nicely.  The bed was extremely comfortable!! Loved the mattress..  Shower/bathroom was great - plenty of water pressure and hot water.  They do not serve a complimentary breakfast, but there is a pantry area to purchase items.  They are pet friendly and I was able to bring my small dog with me on this trip. Close to shopping and restaurants. Very quiet.Will definitely stay here when I return to the Pearland area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded February 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here one night during a business trip to the area. I had a one-bedroom with a queen bed.  The hotel was very clean - the front desk staff were genuinely friendly and helpful.  The room was laid out nicely.  The bed was extremely comfortable!! Loved the mattress..  Shower/bathroom was great - plenty of water pressure and hot water.  They do not serve a complimentary breakfast, but there is a pantry area to purchase items.  They are pet friendly and I was able to bring my small dog with me on this trip. Close to shopping and restaurants. Very quiet.Will definitely stay here when I return to the Pearland area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r122536050-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>122536050</t>
+  </si>
+  <si>
+    <t>01/04/2012</t>
+  </si>
+  <si>
+    <t>Short Stay</t>
+  </si>
+  <si>
+    <t>Hotel was very clean on the outside &amp; the inside.  The staff was extremely helpful, especially when I needed extra towels &amp; pillows.  My room was well worth the amount I paid for it considering the amenities offered by this hotel.  Besides the occasional passerby in the hallway, the hotel was very quiet. The hotel is located less than 5 minutes away from a major highway, shopping, &amp; major restaurants.  I definitely will come back here when I come back into town.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Hotel was very clean on the outside &amp; the inside.  The staff was extremely helpful, especially when I needed extra towels &amp; pillows.  My room was well worth the amount I paid for it considering the amenities offered by this hotel.  Besides the occasional passerby in the hallway, the hotel was very quiet. The hotel is located less than 5 minutes away from a major highway, shopping, &amp; major restaurants.  I definitely will come back here when I come back into town.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r121900060-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1216,15 +1903,6 @@
     <t>I like this Place in particular, clean rooms, in the hearth of Pearland, Texas, very helpful staff, thanks Candlewood.MoreShow less</t>
   </si>
   <si>
-    <t>December 2011</t>
-  </si>
-  <si>
-    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded February 6, 2012</t>
-  </si>
-  <si>
-    <t>Responded February 6, 2012</t>
-  </si>
-  <si>
     <t>I like this Place in particular, clean rooms, in the hearth of Pearland, Texas, very helpful staff, thanks Candlewood.More</t>
   </si>
   <si>
@@ -1264,6 +1942,51 @@
     <t>We had several construction projects going on in the Pearland area. The staff at Candlewood Suites took great care of us during our long stay. It was a nice to be able to come in each evening after a long day to a place that was comfortable and close to the jobsite.I highly recommend this location. Quiet rooms and great staff.Will DelaneyPanterra ConstructionDallas, TX</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r118980832-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>118980832</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>Pearland Candlewood Suites was Sweet</t>
+  </si>
+  <si>
+    <t>I want to thank the staff at Candlewood Suites in Pearland, Texas, for making my stay enjoyable, comfortable and affordable for the second time this year. In a pinch due to tough circumstances, the staff at Candlewood Suites helped me out by providing excellent service and an affordable rate.Alpesh, the General Manager, Terrico,  Natalia and the rest of the front desk staff, housekeeping and maintenance support team were courteous, understanding and professional in assisting me in my stay, according to my needs.I thank them all again.I would recommend this hotel.Jim McCurdy</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r118548254-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>118548254</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>the worst stay ever</t>
+  </si>
+  <si>
+    <t>this hotel was horrible its smelll real bad the first night i got there the room was full of mold and smell badly and i couldnt breath. then i was put in another room which we had the same problem but the smell wasnt bad but there was a problem with the light by the desk {table} it spark fire from it which almost hit me in the face after that the air condition leaks water all over the floor wetting up my things and the light between the bed was pouring water out of it i got there on the 24 of july and no housekeeper came and clean my room til sept 9. then the employee brung there problems to work and there goes the neighborhood fighting and police call ever night.the manger was very rude and drinking on the job is not cool at all. then i got bit by fleas.and dont use your credit card here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded December 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2011</t>
+  </si>
+  <si>
+    <t>this hotel was horrible its smelll real bad the first night i got there the room was full of mold and smell badly and i couldnt breath. then i was put in another room which we had the same problem but the smell wasnt bad but there was a problem with the light by the desk {table} it spark fire from it which almost hit me in the face after that the air condition leaks water all over the floor wetting up my things and the light between the bed was pouring water out of it i got there on the 24 of july and no housekeeper came and clean my room til sept 9. then the employee brung there problems to work and there goes the neighborhood fighting and police call ever night.the manger was very rude and drinking on the job is not cool at all. then i got bit by fleas.and dont use your credit card here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r117920827-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1306,9 +2029,6 @@
     <t>The check-in experience was pleasant and the staff had my reservation at hand.  All staff I had access to was professional and extremely courteous.  The room was perfect and comfortable.I will utilize this property in the future when on business or leisure.Note:  This is a brand new facility and still had the "Grand Opening" sign displayed.MoreShow less</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded August 16, 2011</t>
   </si>
   <si>
@@ -1345,6 +2065,45 @@
     <t>The staff went out of their way to do special things for my daughter and I that I will always remember. The General Manager has a heart of gold and was extremely generous to me. Natalia was a great staff and person, and very friendly to my daughter. The front desk took care of calls and requests, and the cleaning staff was great in respecting my wishes. The entire staff at the Candlewood Pearland was excellent, and I would stay there again if I have to. They also provided a crib for my daughter. I am truly grateful to these people.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r113291759-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>113291759</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Great Place To Stay</t>
+  </si>
+  <si>
+    <t>The entire crew from the manager to the customer service manager to the cleaning staff and maintenance staff, are all wonderful caring people. if you need something, just ask.  i have had nothing but good service from this hotel and hope to in the future.  Keep up the good work. i will definately stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The entire crew from the manager to the customer service manager to the cleaning staff and maintenance staff, are all wonderful caring people. if you need something, just ask.  i have had nothing but good service from this hotel and hope to in the future.  Keep up the good work. i will definately stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r106831338-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>106831338</t>
+  </si>
+  <si>
+    <t>05/04/2011</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>We just hated to leave, everyone was like they were part of our extened family.We will be back in July and this is the best palce to be. I miss everyone. Come see us you will love it here!!  I really love Wednesday's you must come on that day or stay until that day. If you need to be in Texas for along time you should stay there, don't rent apartment you will love this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We just hated to leave, everyone was like they were part of our extened family.We will be back in July and this is the best palce to be. I miss everyone. Come see us you will love it here!!  I really love Wednesday's you must come on that day or stay until that day. If you need to be in Texas for along time you should stay there, don't rent apartment you will love this place!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r90678659-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +2182,57 @@
     <t>This is a great place to stay. Everyone is very courteous and helpful and Kind. The Hotel Is Very Clean and the rooms are great with all the amenities you need to have a great stay and relax. I would highly recommend Candlewood Suites Pearland to any one who travels and comes to Pearland.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r89608368-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>89608368</t>
+  </si>
+  <si>
+    <t>12/11/2010</t>
+  </si>
+  <si>
+    <t>Excellant facility &amp; location at a reasonable price</t>
+  </si>
+  <si>
+    <t>Arrived 8pm after a full day's drive to attend funeral in Pearland next day.  Alexis, the evening employee was very attentive and caring.  Since we didn't have reservations, we really appreciate her service to us that evening. The least thing about our stay was noise from guests above our room one night.  We could hear children jumping and running and it was very disturbing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, Manager at Candlewood Suites, responded to this reviewResponded December 14, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2010</t>
+  </si>
+  <si>
+    <t>Arrived 8pm after a full day's drive to attend funeral in Pearland next day.  Alexis, the evening employee was very attentive and caring.  Since we didn't have reservations, we really appreciate her service to us that evening. The least thing about our stay was noise from guests above our room one night.  We could hear children jumping and running and it was very disturbing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r88671790-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>88671790</t>
+  </si>
+  <si>
+    <t>11/30/2010</t>
+  </si>
+  <si>
+    <t>Very Impressive!!</t>
+  </si>
+  <si>
+    <t>I was in town for Thanksgiving to visit my family.  I needed a place to stay and I just stopped in.  I was blown away!  The staff was amazing (Misty and Alexis especially!!).  The hotel has a great floor plans and wonderful amenities.  I would recommend it to anyone looking for a quiet comfortable hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>operationsmanagercw, Manager at Candlewood Suites, responded to this reviewResponded December 4, 2010</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2010</t>
+  </si>
+  <si>
+    <t>I was in town for Thanksgiving to visit my family.  I needed a place to stay and I just stopped in.  I was blown away!  The staff was amazing (Misty and Alexis especially!!).  The hotel has a great floor plans and wonderful amenities.  I would recommend it to anyone looking for a quiet comfortable hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r87161106-Candlewood_Suites-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1438,9 +2248,6 @@
     <t>The hotel is brand new.  The rooms were clean.  The service at the front desk was great.  All rooms have high spped internet, which is perfect for business travel.MoreShow less</t>
   </si>
   <si>
-    <t>November 2010</t>
-  </si>
-  <si>
     <t>operationsmanagercw, Manager at Candlewood Suites, responded to this reviewResponded November 26, 2010</t>
   </si>
   <si>
@@ -1490,6 +2297,45 @@
   </si>
   <si>
     <t>I stayed at the Candlewood Suites - best hotel for the small business entreprenuer!  After arriving very late for a very early consulting appointment, I was welcomed with a genuine smile (thank you Chad) instead of an empty Front Desk.  Entering the room and collapsing on pillow-top beds were heavenly.  Full kitchen for my snacks and meds (doctors's orders!), wireless internet, and no-hassle express checkout.  Sufficiently equpped Fitness Center for habitual runner. Thank you Candlewood for making my trip into Pearland most enjoyable in my erratic schedule :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r84034172-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>84034172</t>
+  </si>
+  <si>
+    <t>10/19/2010</t>
+  </si>
+  <si>
+    <t>Roach infested - how disappointing!!</t>
+  </si>
+  <si>
+    <t>I thought this was the perfect place - bright clean new rooms, extremely friendly and helpful staff, reasonable rates and amenities - until I saw a roach climbing the wall.  Then another and another.  And the staff seemed uninterested when we mentioned this to them.  What a disappointment, this place had a lot of potential.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1493261-r83806286-Candlewood_Suites-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>83806286</t>
+  </si>
+  <si>
+    <t>10/17/2010</t>
+  </si>
+  <si>
+    <t>Outstanding experience--Most friendly, courteous and helpful staff I mhave encountered!</t>
+  </si>
+  <si>
+    <t>My stay at the Candlewood Suites was arranged by Jennifer Ramsey, Director of Sales.Ms. Ramsey is the most professional, proficient, and most competent sales person I have dealt with in the hotel industry. She absolutely "walked her talk" regarding every commitment she made on behalf of this recently opened property. In my opinion, Jennifer is fully qualified to represent any or all of the Priority Club Rewards Family of Brands---SHE's ABSOLUTELY THAT GOOD! Please reward her and the other key staff members at the Candlewood Suites...they are an excellent team.Thanks for the super experience.Bob AmickMoreShow less</t>
+  </si>
+  <si>
+    <t>Candlewoodpearland, General Manager at Candlewood Suites, responded to this reviewResponded October 18, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2010</t>
+  </si>
+  <si>
+    <t>My stay at the Candlewood Suites was arranged by Jennifer Ramsey, Director of Sales.Ms. Ramsey is the most professional, proficient, and most competent sales person I have dealt with in the hotel industry. She absolutely "walked her talk" regarding every commitment she made on behalf of this recently opened property. In my opinion, Jennifer is fully qualified to represent any or all of the Priority Club Rewards Family of Brands---SHE's ABSOLUTELY THAT GOOD! Please reward her and the other key staff members at the Candlewood Suites...they are an excellent team.Thanks for the super experience.Bob AmickMore</t>
   </si>
 </sst>
 </file>
@@ -2041,14 +2887,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2064,48 +2906,54 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -2121,56 +2969,54 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2186,58 +3032,52 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="X5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="Y5" t="s">
         <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
-      <c r="O5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2253,7 +3093,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2262,25 +3102,25 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2291,14 +3131,10 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X6" t="s">
-        <v>90</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2314,7 +3150,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2323,45 +3159,47 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -2377,7 +3215,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2386,43 +3224,43 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>105</v>
-      </c>
-      <c r="X8" t="s">
-        <v>106</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -2438,7 +3276,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2447,43 +3285,47 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
         <v>106</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2499,7 +3341,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2508,43 +3350,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -2560,7 +3408,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2569,49 +3417,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2627,7 +3469,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2636,49 +3478,45 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
       </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>138</v>
-      </c>
-      <c r="X12" t="s">
-        <v>139</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2694,7 +3532,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2703,43 +3541,45 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>147</v>
-      </c>
-      <c r="X13" t="s">
-        <v>148</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
@@ -2755,7 +3595,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2764,47 +3604,49 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2820,7 +3662,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2829,47 +3671,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2885,7 +3723,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2894,25 +3732,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2923,10 +3761,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>152</v>
+      </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2942,7 +3784,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2951,25 +3793,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2981,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -3003,7 +3845,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3012,49 +3854,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
         <v>174</v>
       </c>
-      <c r="K18" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" t="s">
-        <v>185</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>177</v>
-      </c>
       <c r="O18" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
@@ -3070,7 +3912,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3079,43 +3921,49 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
@@ -3131,52 +3979,58 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>192</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>193</v>
-      </c>
-      <c r="J20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" t="s">
-        <v>196</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>197</v>
-      </c>
       <c r="O20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="X20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
@@ -3192,40 +4046,42 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>201</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>202</v>
-      </c>
-      <c r="J21" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" t="s">
-        <v>204</v>
-      </c>
-      <c r="L21" t="s">
-        <v>205</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>206</v>
-      </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
         <v>5</v>
       </c>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3235,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
@@ -3257,56 +4113,52 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>210</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" t="s">
-        <v>212</v>
-      </c>
-      <c r="K22" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" t="s">
-        <v>214</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>215</v>
-      </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
@@ -3322,52 +4174,58 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s">
+        <v>218</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" t="s">
         <v>219</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
-        <v>220</v>
-      </c>
-      <c r="J23" t="s">
-        <v>221</v>
-      </c>
-      <c r="K23" t="s">
-        <v>222</v>
-      </c>
-      <c r="L23" t="s">
-        <v>223</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>197</v>
-      </c>
-      <c r="O23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
-      <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>224</v>
-      </c>
-      <c r="X23" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -3383,7 +4241,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3392,25 +4250,25 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3428,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="X24" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Y24" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -3450,7 +4308,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3459,43 +4317,47 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -3511,7 +4373,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3520,43 +4382,47 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
@@ -3572,7 +4438,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3581,25 +4447,25 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3610,14 +4476,10 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>250</v>
-      </c>
-      <c r="X27" t="s">
-        <v>251</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
@@ -3633,7 +4495,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3642,22 +4504,26 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>233</v>
+      </c>
+      <c r="O28" t="s">
+        <v>121</v>
+      </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -3668,13 +4534,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="X28" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Y28" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
@@ -3690,7 +4556,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3699,34 +4565,34 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="J29" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="K29" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+      <c r="N29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
         <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3735,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Y29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30">
@@ -3757,7 +4623,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3766,47 +4632,43 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="X30" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="Y30" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
@@ -3822,7 +4684,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3831,31 +4693,31 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>121</v>
+      </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -3867,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="X31" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="Y31" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
@@ -3889,7 +4751,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3898,53 +4760,43 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="J32" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="X32" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="Y32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
@@ -3960,7 +4812,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3969,25 +4821,25 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3999,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="X33" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="Y33" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
@@ -4021,7 +4873,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -4030,32 +4882,28 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="J34" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s">
-        <v>88</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
         <v>5</v>
       </c>
@@ -4069,10 +4917,14 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>297</v>
+      </c>
+      <c r="X34" t="s">
+        <v>298</v>
+      </c>
       <c r="Y34" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35">
@@ -4088,7 +4940,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -4097,53 +4949,43 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="X35" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="Y35" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36">
@@ -4159,7 +5001,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -4168,38 +5010,32 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="J36" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="K36" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="L36" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4208,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="X36" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
@@ -4230,7 +5066,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -4239,49 +5075,47 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>324</v>
+      </c>
+      <c r="X37" t="s">
+        <v>325</v>
+      </c>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
@@ -4297,7 +5131,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4306,38 +5140,30 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4346,13 +5172,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="X38" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="Y38" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39">
@@ -4368,7 +5194,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4377,53 +5203,43 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="J39" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="K39" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>88</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="X39" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="Y39" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40">
@@ -4439,7 +5255,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4448,49 +5264,43 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="J40" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="K40" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s">
+        <v>121</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>346</v>
+      </c>
+      <c r="X40" t="s">
         <v>347</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>348</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="41">
@@ -4506,7 +5316,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4515,35 +5325,31 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>88</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>5</v>
       </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>5</v>
       </c>
@@ -4555,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="X41" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
@@ -4577,7 +5383,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4586,53 +5392,43 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="X42" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="Y42" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43">
@@ -4648,7 +5444,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4657,38 +5453,32 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="O43" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4697,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="X43" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Y43" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44">
@@ -4719,7 +5509,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4728,53 +5518,43 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="O44" t="s">
-        <v>88</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X44" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Y44" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45">
@@ -4790,7 +5570,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4799,53 +5579,43 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X45" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="Y45" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
@@ -4861,7 +5631,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4870,49 +5640,43 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>381</v>
+      </c>
+      <c r="X46" t="s">
+        <v>382</v>
+      </c>
       <c r="Y46" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
@@ -4928,7 +5692,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4937,49 +5701,39 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="J47" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
-      </c>
-      <c r="N47" t="s">
-        <v>413</v>
-      </c>
-      <c r="O47" t="s">
-        <v>52</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>1</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="X47" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="Y47" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48">
@@ -4995,7 +5749,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -5004,49 +5758,45 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="O48" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="s"/>
       <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>423</v>
-      </c>
-      <c r="X48" t="s">
-        <v>424</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49">
@@ -5062,7 +5812,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5071,49 +5821,43 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="J49" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="K49" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="L49" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
       <c r="R49" t="s"/>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="X49" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="Y49" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50">
@@ -5129,7 +5873,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5138,16 +5882,16 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="J50" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="K50" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="L50" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5161,7 +5905,7 @@
         <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5174,13 +5918,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="X50" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="Y50" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51">
@@ -5196,7 +5940,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5205,53 +5949,47 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="J51" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="K51" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="O51" t="s">
-        <v>88</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="X51" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="Y51" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52">
@@ -5267,7 +6005,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5276,26 +6014,22 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="J52" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="K52" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="L52" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52" t="s">
-        <v>457</v>
-      </c>
-      <c r="O52" t="s">
-        <v>52</v>
-      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="n">
         <v>5</v>
       </c>
@@ -5316,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="X52" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="Y52" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53">
@@ -5338,7 +6072,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5347,35 +6081,29 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="J53" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="K53" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="L53" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="O53" t="s">
-        <v>88</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
         <v>4</v>
       </c>
@@ -5387,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="X53" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="Y53" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54">
@@ -5409,7 +6137,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5418,49 +6146,47 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="K54" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="O54" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>460</v>
+      </c>
+      <c r="X54" t="s">
+        <v>461</v>
+      </c>
       <c r="Y54" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55">
@@ -5476,7 +6202,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5485,53 +6211,2740 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="J55" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="L55" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="O55" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
+        <v>469</v>
+      </c>
+      <c r="X55" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s">
+        <v>475</v>
+      </c>
+      <c r="L56" t="s">
+        <v>476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>477</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>478</v>
+      </c>
+      <c r="X56" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
         <v>481</v>
       </c>
-      <c r="X55" t="s">
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
         <v>482</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="J57" t="s">
         <v>483</v>
+      </c>
+      <c r="K57" t="s">
+        <v>484</v>
+      </c>
+      <c r="L57" t="s">
+        <v>485</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>486</v>
+      </c>
+      <c r="O57" t="s">
+        <v>121</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>487</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>488</v>
+      </c>
+      <c r="J58" t="s">
+        <v>489</v>
+      </c>
+      <c r="K58" t="s">
+        <v>490</v>
+      </c>
+      <c r="L58" t="s">
+        <v>491</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>477</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>492</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>493</v>
+      </c>
+      <c r="J59" t="s">
+        <v>494</v>
+      </c>
+      <c r="K59" t="s">
+        <v>495</v>
+      </c>
+      <c r="L59" t="s">
+        <v>496</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>497</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>498</v>
+      </c>
+      <c r="X59" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>501</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>502</v>
+      </c>
+      <c r="J60" t="s">
+        <v>503</v>
+      </c>
+      <c r="K60" t="s">
+        <v>504</v>
+      </c>
+      <c r="L60" t="s">
+        <v>505</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>497</v>
+      </c>
+      <c r="O60" t="s">
+        <v>66</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>506</v>
+      </c>
+      <c r="X60" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>509</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>510</v>
+      </c>
+      <c r="J61" t="s">
+        <v>511</v>
+      </c>
+      <c r="K61" t="s">
+        <v>512</v>
+      </c>
+      <c r="L61" t="s">
+        <v>513</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>514</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>515</v>
+      </c>
+      <c r="X61" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>518</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>519</v>
+      </c>
+      <c r="J62" t="s">
+        <v>520</v>
+      </c>
+      <c r="K62" t="s">
+        <v>521</v>
+      </c>
+      <c r="L62" t="s">
+        <v>522</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>523</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>525</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>526</v>
+      </c>
+      <c r="J63" t="s">
+        <v>527</v>
+      </c>
+      <c r="K63" t="s">
+        <v>528</v>
+      </c>
+      <c r="L63" t="s">
+        <v>529</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>530</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>531</v>
+      </c>
+      <c r="X63" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>534</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>535</v>
+      </c>
+      <c r="J64" t="s">
+        <v>536</v>
+      </c>
+      <c r="K64" t="s">
+        <v>537</v>
+      </c>
+      <c r="L64" t="s">
+        <v>538</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>539</v>
+      </c>
+      <c r="O64" t="s">
+        <v>121</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>540</v>
+      </c>
+      <c r="X64" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>543</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>544</v>
+      </c>
+      <c r="J65" t="s">
+        <v>545</v>
+      </c>
+      <c r="K65" t="s">
+        <v>546</v>
+      </c>
+      <c r="L65" t="s">
+        <v>547</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>548</v>
+      </c>
+      <c r="O65" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>540</v>
+      </c>
+      <c r="X65" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>550</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>551</v>
+      </c>
+      <c r="J66" t="s">
+        <v>552</v>
+      </c>
+      <c r="K66" t="s">
+        <v>553</v>
+      </c>
+      <c r="L66" t="s">
+        <v>554</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>555</v>
+      </c>
+      <c r="O66" t="s">
+        <v>121</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>540</v>
+      </c>
+      <c r="X66" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>557</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>558</v>
+      </c>
+      <c r="J67" t="s">
+        <v>559</v>
+      </c>
+      <c r="K67" t="s">
+        <v>560</v>
+      </c>
+      <c r="L67" t="s">
+        <v>561</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>540</v>
+      </c>
+      <c r="X67" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>563</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>564</v>
+      </c>
+      <c r="J68" t="s">
+        <v>559</v>
+      </c>
+      <c r="K68" t="s">
+        <v>565</v>
+      </c>
+      <c r="L68" t="s">
+        <v>566</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>540</v>
+      </c>
+      <c r="X68" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>569</v>
+      </c>
+      <c r="J69" t="s">
+        <v>570</v>
+      </c>
+      <c r="K69" t="s">
+        <v>571</v>
+      </c>
+      <c r="L69" t="s">
+        <v>572</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>573</v>
+      </c>
+      <c r="X69" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>576</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>577</v>
+      </c>
+      <c r="J70" t="s">
+        <v>578</v>
+      </c>
+      <c r="K70" t="s">
+        <v>579</v>
+      </c>
+      <c r="L70" t="s">
+        <v>580</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>581</v>
+      </c>
+      <c r="O70" t="s">
+        <v>121</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>582</v>
+      </c>
+      <c r="X70" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>585</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>586</v>
+      </c>
+      <c r="J71" t="s">
+        <v>587</v>
+      </c>
+      <c r="K71" t="s">
+        <v>588</v>
+      </c>
+      <c r="L71" t="s">
+        <v>589</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>590</v>
+      </c>
+      <c r="O71" t="s">
+        <v>66</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>591</v>
+      </c>
+      <c r="X71" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>594</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>595</v>
+      </c>
+      <c r="J72" t="s">
+        <v>596</v>
+      </c>
+      <c r="K72" t="s">
+        <v>208</v>
+      </c>
+      <c r="L72" t="s">
+        <v>597</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>598</v>
+      </c>
+      <c r="O72" t="s">
+        <v>121</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>591</v>
+      </c>
+      <c r="X72" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>601</v>
+      </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>603</v>
+      </c>
+      <c r="L73" t="s">
+        <v>604</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>605</v>
+      </c>
+      <c r="O73" t="s">
+        <v>121</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>606</v>
+      </c>
+      <c r="X73" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>609</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>610</v>
+      </c>
+      <c r="J74" t="s">
+        <v>611</v>
+      </c>
+      <c r="K74" t="s">
+        <v>612</v>
+      </c>
+      <c r="L74" t="s">
+        <v>613</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>614</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>606</v>
+      </c>
+      <c r="X74" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>616</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>617</v>
+      </c>
+      <c r="J75" t="s">
+        <v>618</v>
+      </c>
+      <c r="K75" t="s">
+        <v>619</v>
+      </c>
+      <c r="L75" t="s">
+        <v>620</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>614</v>
+      </c>
+      <c r="O75" t="s">
+        <v>121</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>606</v>
+      </c>
+      <c r="X75" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>622</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>623</v>
+      </c>
+      <c r="J76" t="s">
+        <v>624</v>
+      </c>
+      <c r="K76" t="s">
+        <v>625</v>
+      </c>
+      <c r="L76" t="s">
+        <v>626</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>627</v>
+      </c>
+      <c r="O76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>606</v>
+      </c>
+      <c r="X76" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>629</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>630</v>
+      </c>
+      <c r="J77" t="s">
+        <v>631</v>
+      </c>
+      <c r="K77" t="s">
+        <v>632</v>
+      </c>
+      <c r="L77" t="s">
+        <v>633</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>627</v>
+      </c>
+      <c r="O77" t="s">
+        <v>121</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>634</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>635</v>
+      </c>
+      <c r="J78" t="s">
+        <v>636</v>
+      </c>
+      <c r="K78" t="s">
+        <v>637</v>
+      </c>
+      <c r="L78" t="s">
+        <v>638</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>639</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>640</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>641</v>
+      </c>
+      <c r="J79" t="s">
+        <v>642</v>
+      </c>
+      <c r="K79" t="s">
+        <v>643</v>
+      </c>
+      <c r="L79" t="s">
+        <v>644</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>645</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>646</v>
+      </c>
+      <c r="X79" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>649</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>650</v>
+      </c>
+      <c r="J80" t="s">
+        <v>651</v>
+      </c>
+      <c r="K80" t="s">
+        <v>652</v>
+      </c>
+      <c r="L80" t="s">
+        <v>653</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>654</v>
+      </c>
+      <c r="O80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>655</v>
+      </c>
+      <c r="X80" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>658</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>659</v>
+      </c>
+      <c r="J81" t="s">
+        <v>660</v>
+      </c>
+      <c r="K81" t="s">
+        <v>661</v>
+      </c>
+      <c r="L81" t="s">
+        <v>662</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>645</v>
+      </c>
+      <c r="O81" t="s">
+        <v>121</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>663</v>
+      </c>
+      <c r="X81" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>666</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>667</v>
+      </c>
+      <c r="J82" t="s">
+        <v>668</v>
+      </c>
+      <c r="K82" t="s">
+        <v>669</v>
+      </c>
+      <c r="L82" t="s">
+        <v>670</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>671</v>
+      </c>
+      <c r="O82" t="s">
+        <v>66</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>672</v>
+      </c>
+      <c r="X82" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>675</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>676</v>
+      </c>
+      <c r="J83" t="s">
+        <v>677</v>
+      </c>
+      <c r="K83" t="s">
+        <v>678</v>
+      </c>
+      <c r="L83" t="s">
+        <v>679</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>671</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>672</v>
+      </c>
+      <c r="X83" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>681</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>682</v>
+      </c>
+      <c r="J84" t="s">
+        <v>683</v>
+      </c>
+      <c r="K84" t="s">
+        <v>684</v>
+      </c>
+      <c r="L84" t="s">
+        <v>685</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>686</v>
+      </c>
+      <c r="O84" t="s">
+        <v>121</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>672</v>
+      </c>
+      <c r="X84" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>688</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>689</v>
+      </c>
+      <c r="J85" t="s">
+        <v>690</v>
+      </c>
+      <c r="K85" t="s">
+        <v>691</v>
+      </c>
+      <c r="L85" t="s">
+        <v>692</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>693</v>
+      </c>
+      <c r="X85" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>696</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>697</v>
+      </c>
+      <c r="J86" t="s">
+        <v>698</v>
+      </c>
+      <c r="K86" t="s">
+        <v>699</v>
+      </c>
+      <c r="L86" t="s">
+        <v>700</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>701</v>
+      </c>
+      <c r="O86" t="s">
+        <v>121</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>702</v>
+      </c>
+      <c r="X86" t="s">
+        <v>703</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>705</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>706</v>
+      </c>
+      <c r="J87" t="s">
+        <v>707</v>
+      </c>
+      <c r="K87" t="s">
+        <v>708</v>
+      </c>
+      <c r="L87" t="s">
+        <v>709</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>710</v>
+      </c>
+      <c r="O87" t="s">
+        <v>66</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>711</v>
+      </c>
+      <c r="X87" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>714</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>715</v>
+      </c>
+      <c r="J88" t="s">
+        <v>716</v>
+      </c>
+      <c r="K88" t="s">
+        <v>717</v>
+      </c>
+      <c r="L88" t="s">
+        <v>718</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>710</v>
+      </c>
+      <c r="O88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>719</v>
+      </c>
+      <c r="X88" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>722</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>723</v>
+      </c>
+      <c r="J89" t="s">
+        <v>724</v>
+      </c>
+      <c r="K89" t="s">
+        <v>725</v>
+      </c>
+      <c r="L89" t="s">
+        <v>726</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>727</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>728</v>
+      </c>
+      <c r="X89" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>731</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>732</v>
+      </c>
+      <c r="J90" t="s">
+        <v>733</v>
+      </c>
+      <c r="K90" t="s">
+        <v>734</v>
+      </c>
+      <c r="L90" t="s">
+        <v>735</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>727</v>
+      </c>
+      <c r="O90" t="s">
+        <v>121</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>736</v>
+      </c>
+      <c r="X90" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>739</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>740</v>
+      </c>
+      <c r="J91" t="s">
+        <v>741</v>
+      </c>
+      <c r="K91" t="s">
+        <v>742</v>
+      </c>
+      <c r="L91" t="s">
+        <v>743</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>701</v>
+      </c>
+      <c r="O91" t="s">
+        <v>121</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>745</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>746</v>
+      </c>
+      <c r="J92" t="s">
+        <v>747</v>
+      </c>
+      <c r="K92" t="s">
+        <v>748</v>
+      </c>
+      <c r="L92" t="s">
+        <v>749</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>701</v>
+      </c>
+      <c r="O92" t="s">
+        <v>121</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>750</v>
+      </c>
+      <c r="X92" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>753</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>754</v>
+      </c>
+      <c r="J93" t="s">
+        <v>755</v>
+      </c>
+      <c r="K93" t="s">
+        <v>756</v>
+      </c>
+      <c r="L93" t="s">
+        <v>757</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59570</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>758</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>759</v>
+      </c>
+      <c r="J94" t="s">
+        <v>760</v>
+      </c>
+      <c r="K94" t="s">
+        <v>761</v>
+      </c>
+      <c r="L94" t="s">
+        <v>762</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>701</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>763</v>
+      </c>
+      <c r="X94" t="s">
+        <v>764</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
